--- a/Main/SASdata/couple_moments.xlsx
+++ b/Main/SASdata/couple_moments.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E09CC-40E1-4861-80CA-9EF412C5F01E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5215C450-F13E-41AD-A170-591170F1788E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Aldersforskel</t>
   </si>
@@ -68,6 +69,21 @@
   </si>
   <si>
     <t>SE_W</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>AGE_DIF</t>
+  </si>
+  <si>
+    <t>Ret_Age</t>
+  </si>
+  <si>
+    <t>ret_ssh</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -105,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,17 +129,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:L1585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +541,20 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="I2" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B2,'Ark3'!$D$2:$D$100,'Ark1'!$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>6.030150753768844E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B2,'Ark3'!$D$2:$D$100,'Ark1'!$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>7.7419558482696479E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -521,10 +566,20 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B3,'Ark3'!$D$2:$D$100,'Ark1'!$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4.9170251997541483E-3</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B3,'Ark3'!$D$2:$D$100,'Ark1'!$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6.9948896080918477E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -536,10 +591,20 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B4,'Ark3'!$D$2:$D$100,'Ark1'!$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3.0905077262693161E-3</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B4,'Ark3'!$D$2:$D$100,'Ark1'!$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5.5506364394213262E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -551,10 +616,20 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B5,'Ark3'!$D$2:$D$100,'Ark1'!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5.1777701070072476E-3</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B5,'Ark3'!$D$2:$D$100,'Ark1'!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7.1770194396603329E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -566,10 +641,20 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="I6" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B6,'Ark3'!$D$2:$D$100,'Ark1'!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6.4298836497244339E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B6,'Ark3'!$D$2:$D$100,'Ark1'!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>7.9928344446606917E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -581,14 +666,16 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
+      <c r="I7" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B7,'Ark3'!$D$2:$D$100,'Ark1'!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B7,'Ark3'!$D$2:$D$100,'Ark1'!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -600,14 +687,16 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
+      <c r="I8" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B8,'Ark3'!$D$2:$D$100,'Ark1'!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B8,'Ark3'!$D$2:$D$100,'Ark1'!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -619,14 +708,16 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
+      <c r="I9" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B9,'Ark3'!$D$2:$D$100,'Ark1'!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B9,'Ark3'!$D$2:$D$100,'Ark1'!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -638,14 +729,16 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
+      <c r="I10" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B10,'Ark3'!$D$2:$D$100,'Ark1'!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B10,'Ark3'!$D$2:$D$100,'Ark1'!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -669,10 +762,18 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="4">
+        <v>1.5345268542199491E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.2497187851518559E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.1229218909534314</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.14829384474849941</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -696,10 +797,18 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -723,10 +832,18 @@
       <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="4">
+        <v>1.041666666666667E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.1015291077584267</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.21540880161775239</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -750,10 +867,18 @@
       <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -777,10 +902,18 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="I15" s="4">
+        <v>7.4404761904761901E-3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>8.5936694749886369E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.11469767022723509</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -804,10 +937,18 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -831,10 +972,18 @@
       <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -858,10 +1007,18 @@
       <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -885,10 +1042,18 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="4">
+        <v>6.3745019920318727E-3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3.6507880787727742E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>7.9585599931051923E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>6.0311357348153467E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -912,10 +1077,18 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -939,10 +1112,18 @@
       <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="I21" s="4">
+        <v>6.2630480167014616E-3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.3082145281737949E-3</v>
+      </c>
+      <c r="K21" s="4">
+        <v>7.8891205126059252E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>4.7988401451452008E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -966,10 +1147,18 @@
       <c r="H22" s="3">
         <v>3</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="I22" s="4">
+        <v>1.1650485436893201E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>7.8809106830122592E-3</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.10730681071571339</v>
+      </c>
+      <c r="L22" s="4">
+        <v>8.8423989560631341E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -993,10 +1182,18 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="I23" s="4">
+        <v>1.040681173131504E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5.406623113313809E-3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.10148157468675779</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7.3330699845456204E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1020,10 +1217,18 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1047,10 +1252,18 @@
       <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="I25" s="4">
+        <v>1.11587982832618E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.1050441788207956</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1074,10 +1287,18 @@
       <c r="H26" s="3">
         <v>3</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="I26" s="4">
+        <v>2.1459227467811159E-3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4.4150110375275938E-3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4.6274374791518927E-2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>6.6298708245833129E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1088,10 +1309,20 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="I27" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B27,'Ark3'!$D$2:$D$100,'Ark1'!$A27)</f>
+        <v>7.4946466809421844E-3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.0080645161290321E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B27,'Ark3'!$D$2:$D$100,'Ark1'!$A27)</f>
+        <v>7.4946466809421844E-3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>9.9895073724495909E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1103,10 +1334,20 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="I28" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B28,'Ark3'!$D$2:$D$100,'Ark1'!$A28)</f>
+        <v>5.7840616966580976E-3</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.1104256631708821E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B28,'Ark3'!$D$2:$D$100,'Ark1'!$A28)</f>
+        <v>5.7840616966580976E-3</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.1047900382496636</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1118,10 +1359,20 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="I29" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B29,'Ark3'!$D$2:$D$100,'Ark1'!$A29)</f>
+        <v>4.7058823529411761E-3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>9.7951914514692786E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B29,'Ark3'!$D$2:$D$100,'Ark1'!$A29)</f>
+        <v>4.7058823529411761E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>9.8484748443088091E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1133,10 +1384,20 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="I30" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B30,'Ark3'!$D$2:$D$100,'Ark1'!$A30)</f>
+        <v>5.1451672179345827E-3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.214855952794169E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B30,'Ark3'!$D$2:$D$100,'Ark1'!$A30)</f>
+        <v>5.1451672179345827E-3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.1095489480978149</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1148,10 +1409,20 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="I31" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B31,'Ark3'!$D$2:$D$100,'Ark1'!$A31)</f>
+        <v>4.9439683586025053E-3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>9.535527529990772E-3</v>
+      </c>
+      <c r="K31" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B31,'Ark3'!$D$2:$D$100,'Ark1'!$A31)</f>
+        <v>4.9439683586025053E-3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>9.7183338308146003E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1163,10 +1434,20 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="I32" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B32,'Ark3'!$D$2:$D$100,'Ark1'!$A32)</f>
+        <v>5.1132213294375461E-3</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.1216263582194181E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B32,'Ark3'!$D$2:$D$100,'Ark1'!$A32)</f>
+        <v>5.1132213294375461E-3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.10531124827599821</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1178,14 +1459,16 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
+      <c r="I33" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B33,'Ark3'!$D$2:$D$100,'Ark1'!$A33)</f>
+        <v>4.7938638542665392E-3</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B33,'Ark3'!$D$2:$D$100,'Ark1'!$A33)</f>
+        <v>4.7938638542665392E-3</v>
+      </c>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1197,14 +1480,16 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
+      <c r="I34" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B34,'Ark3'!$D$2:$D$100,'Ark1'!$A34)</f>
+        <v>5.1813471502590684E-3</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B34,'Ark3'!$D$2:$D$100,'Ark1'!$A34)</f>
+        <v>5.1813471502590684E-3</v>
+      </c>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1216,14 +1501,16 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
+      <c r="I35" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B35,'Ark3'!$D$2:$D$100,'Ark1'!$A35)</f>
+        <v>4.5819014891179842E-3</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B35,'Ark3'!$D$2:$D$100,'Ark1'!$A35)</f>
+        <v>4.5819014891179842E-3</v>
+      </c>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1247,10 +1534,18 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="I36" s="4">
+        <v>1.0680907877169561E-2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2.1889400921658989E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.10279506838408629</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.14632243522081589</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1274,10 +1569,18 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.21794494717703361</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1301,10 +1604,18 @@
       <c r="H38" s="3">
         <v>2</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="I38" s="4">
+        <v>1.136363636363636E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.1059929437851002</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.21540880161775239</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1328,10 +1639,18 @@
       <c r="H39" s="3">
         <v>3</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.20829889522526551</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1355,10 +1674,18 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="I40" s="4">
+        <v>4.6224961479198771E-3</v>
+      </c>
+      <c r="J40" s="4">
+        <v>6.8728522336769758E-3</v>
+      </c>
+      <c r="K40" s="4">
+        <v>6.7831620040231549E-2</v>
+      </c>
+      <c r="L40" s="4">
+        <v>8.2617287148943702E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1382,10 +1709,18 @@
       <c r="H41" s="3">
         <v>1</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1409,10 +1744,18 @@
       <c r="H42" s="3">
         <v>2</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1436,10 +1779,18 @@
       <c r="H43" s="3">
         <v>3</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1463,10 +1814,18 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="I44" s="4">
+        <v>1.3075790506905979E-2</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1.155926331789742E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.1135993583147611</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.1068908169556437</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1490,10 +1849,18 @@
       <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1.886792452830189E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.1360585386967543</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1517,10 +1884,18 @@
       <c r="H46" s="3">
         <v>2</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="I46" s="4">
+        <v>1.0800842992623809E-2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.312551271534044E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.1033643303237268</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.1138122736408507</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -1544,10 +1919,18 @@
       <c r="H47" s="3">
         <v>3</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="I47" s="4">
+        <v>1.1952191235059761E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1.0526315789473681E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.1086707704939112</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.1020564180508701</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1571,10 +1954,18 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="I48" s="4">
+        <v>1.113671274961598E-2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4.1350792556857337E-3</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.1049413473267259</v>
+      </c>
+      <c r="L48" s="4">
+        <v>6.4171491919971221E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -1598,10 +1989,18 @@
       <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1625,10 +2024,18 @@
       <c r="H50" s="3">
         <v>2</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="I50" s="4">
+        <v>9.5486111111111119E-3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="K50" s="4">
+        <v>9.7249345174966986E-2</v>
+      </c>
+      <c r="L50" s="4">
+        <v>7.9055377924380707E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1652,10 +2059,18 @@
       <c r="H51" s="3">
         <v>3</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="I51" s="4">
+        <v>8.8105726872246704E-3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2.2075055187637969E-3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>9.3450235399103201E-2</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4.6932211093751203E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -1666,10 +2081,20 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="I52" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B52,'Ark3'!$D$2:$D$100,'Ark1'!$A52)</f>
+        <v>0.28278221208665899</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.27438370846730981</v>
+      </c>
+      <c r="K52" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B52,'Ark3'!$D$2:$D$100,'Ark1'!$A52)</f>
+        <v>0.28278221208665899</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.44620319249758411</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -1681,10 +2106,20 @@
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="I53" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B53,'Ark3'!$D$2:$D$100,'Ark1'!$A53)</f>
+        <v>0.28802153432032301</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0.27809890815671162</v>
+      </c>
+      <c r="K53" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B53,'Ark3'!$D$2:$D$100,'Ark1'!$A53)</f>
+        <v>0.28802153432032301</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.44806239011855981</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -1696,10 +2131,20 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="I54" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B54,'Ark3'!$D$2:$D$100,'Ark1'!$A54)</f>
+        <v>0.27013752455795681</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0.26956924502084301</v>
+      </c>
+      <c r="K54" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B54,'Ark3'!$D$2:$D$100,'Ark1'!$A54)</f>
+        <v>0.27013752455795681</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.44373603319962163</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -1711,10 +2156,20 @@
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="I55" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B55,'Ark3'!$D$2:$D$100,'Ark1'!$A55)</f>
+        <v>0.25352112676056338</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0.25528105979233801</v>
+      </c>
+      <c r="K55" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B55,'Ark3'!$D$2:$D$100,'Ark1'!$A55)</f>
+        <v>0.25352112676056338</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.43601908249942312</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -1726,10 +2181,20 @@
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="I56" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B56,'Ark3'!$D$2:$D$100,'Ark1'!$A56)</f>
+        <v>0.2524137931034483</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.24824056301983369</v>
+      </c>
+      <c r="K56" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B56,'Ark3'!$D$2:$D$100,'Ark1'!$A56)</f>
+        <v>0.2524137931034483</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.43199211322827369</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -1741,10 +2206,20 @@
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="I57" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B57,'Ark3'!$D$2:$D$100,'Ark1'!$A57)</f>
+        <v>0.25464895635673618</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0.25271149674620391</v>
+      </c>
+      <c r="K57" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B57,'Ark3'!$D$2:$D$100,'Ark1'!$A57)</f>
+        <v>0.25464895635673618</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.4345669064235072</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -1756,10 +2231,20 @@
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="I58" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B58,'Ark3'!$D$2:$D$100,'Ark1'!$A58)</f>
+        <v>0.25149700598802388</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.24623352165725049</v>
+      </c>
+      <c r="K58" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B58,'Ark3'!$D$2:$D$100,'Ark1'!$A58)</f>
+        <v>0.25149700598802388</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.4308161724790735</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -1771,14 +2256,16 @@
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4">
-        <v>0</v>
-      </c>
+      <c r="I59" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B59,'Ark3'!$D$2:$D$100,'Ark1'!$A59)</f>
+        <v>0.2935528120713306</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B59,'Ark3'!$D$2:$D$100,'Ark1'!$A59)</f>
+        <v>0.2935528120713306</v>
+      </c>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -1790,14 +2277,16 @@
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4">
-        <v>0</v>
-      </c>
+      <c r="I60" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B60,'Ark3'!$D$2:$D$100,'Ark1'!$A60)</f>
+        <v>0.265281173594132</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B60,'Ark3'!$D$2:$D$100,'Ark1'!$A60)</f>
+        <v>0.265281173594132</v>
+      </c>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -1821,10 +2310,18 @@
       <c r="H61" s="3">
         <v>0</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="I61" s="4">
+        <v>1.0355029585798819E-2</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2.93398533007335E-2</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.10123143260902739</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.16875730001699171</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -1848,10 +2345,18 @@
       <c r="H62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -1875,10 +2380,18 @@
       <c r="H63" s="3">
         <v>2</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2.479338842975207E-2</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.15549493985311391</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -1902,10 +2415,18 @@
       <c r="H64" s="3">
         <v>3</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -1929,10 +2450,18 @@
       <c r="H65" s="3">
         <v>0</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="I65" s="4">
+        <v>1.7211703958691909E-3</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>4.1451272216152482E-2</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -1956,10 +2485,18 @@
       <c r="H66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -1983,10 +2520,18 @@
       <c r="H67" s="3">
         <v>2</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -2010,10 +2555,18 @@
       <c r="H68" s="3">
         <v>3</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -2037,10 +2590,18 @@
       <c r="H69" s="3">
         <v>0</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="I69" s="4">
+        <v>0.23397531231409871</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0.3333702146492587</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.42335666469493388</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0.47141755868228519</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -2064,10 +2625,18 @@
       <c r="H70" s="3">
         <v>1</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="I70" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0.14814814814814811</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.33071891388307378</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.35524677950464589</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -2091,10 +2660,18 @@
       <c r="H71" s="3">
         <v>2</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="I71" s="4">
+        <v>0.20151371807000951</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0.40734800991398162</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.40113082591544891</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.49134062393934042</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -2118,10 +2695,18 @@
       <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="I72" s="4">
+        <v>0.1549586776859504</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0.29840972871842841</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.36186528694497921</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.45756022830292231</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -2145,10 +2730,18 @@
       <c r="H73" s="3">
         <v>0</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="I73" s="4">
+        <v>9.275783357543059E-2</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0.13679012345679009</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.29009277461843702</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0.34362564744423002</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -2172,10 +2765,18 @@
       <c r="H74" s="3">
         <v>1</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0.33071891388307378</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -2199,10 +2800,18 @@
       <c r="H75" s="3">
         <v>2</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="I75" s="4">
+        <v>8.8050314465408799E-2</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0.1705069124423963</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.28336805851745428</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0.37607752558715513</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -2226,10 +2835,18 @@
       <c r="H76" s="3">
         <v>3</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="I76" s="4">
+        <v>3.6613272311212808E-2</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0.13539192399049879</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0.18781038470190561</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0.34214171173455282</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -2240,10 +2857,20 @@
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="I77" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B77,'Ark3'!$D$2:$D$100,'Ark1'!$A77)</f>
+        <v>0.141206675224647</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0.14184397163120571</v>
+      </c>
+      <c r="K77" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B77,'Ark3'!$D$2:$D$100,'Ark1'!$A77)</f>
+        <v>0.141206675224647</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0.34889003904252042</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -2255,10 +2882,20 @@
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="I78" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B78,'Ark3'!$D$2:$D$100,'Ark1'!$A78)</f>
+        <v>0.1145833333333333</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0.1181046676096181</v>
+      </c>
+      <c r="K78" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B78,'Ark3'!$D$2:$D$100,'Ark1'!$A78)</f>
+        <v>0.1145833333333333</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0.32273201746718549</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -2270,10 +2907,20 @@
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="I79" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B79,'Ark3'!$D$2:$D$100,'Ark1'!$A79)</f>
+        <v>0.12101910828025481</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0.1188463451019393</v>
+      </c>
+      <c r="K79" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B79,'Ark3'!$D$2:$D$100,'Ark1'!$A79)</f>
+        <v>0.12101910828025481</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0.3236076194372593</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -2285,10 +2932,20 @@
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="I80" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B80,'Ark3'!$D$2:$D$100,'Ark1'!$A80)</f>
+        <v>0.13025210084033609</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0.12732305258995649</v>
+      </c>
+      <c r="K80" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B80,'Ark3'!$D$2:$D$100,'Ark1'!$A80)</f>
+        <v>0.13025210084033609</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0.33333450596830161</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -2300,10 +2957,20 @@
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="I81" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B81,'Ark3'!$D$2:$D$100,'Ark1'!$A81)</f>
+        <v>0.1337209302325581</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0.12884545783568591</v>
+      </c>
+      <c r="K81" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B81,'Ark3'!$D$2:$D$100,'Ark1'!$A81)</f>
+        <v>0.1337209302325581</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0.33502881343370811</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2315,10 +2982,20 @@
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="I82" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B82,'Ark3'!$D$2:$D$100,'Ark1'!$A82)</f>
+        <v>0.12859560067681891</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0.12785571142284571</v>
+      </c>
+      <c r="K82" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B82,'Ark3'!$D$2:$D$100,'Ark1'!$A82)</f>
+        <v>0.12859560067681891</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0.333929077019962</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -2330,10 +3007,20 @@
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="I83" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B83,'Ark3'!$D$2:$D$100,'Ark1'!$A83)</f>
+        <v>0.1249323958896701</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0.1285569105691057</v>
+      </c>
+      <c r="K83" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B83,'Ark3'!$D$2:$D$100,'Ark1'!$A83)</f>
+        <v>0.1249323958896701</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0.33470887546348788</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -2345,10 +3032,20 @@
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="I84" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B84,'Ark3'!$D$2:$D$100,'Ark1'!$A84)</f>
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0.11400422237860661</v>
+      </c>
+      <c r="K84" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B84,'Ark3'!$D$2:$D$100,'Ark1'!$A84)</f>
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0.31781639299830938</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -2360,13 +3057,16 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4">
-        <v>0</v>
-      </c>
-      <c r="L85" s="4">
-        <v>0</v>
-      </c>
+      <c r="I85" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B85,'Ark3'!$D$2:$D$100,'Ark1'!$A85)</f>
+        <v>0.12972972972972971</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B85,'Ark3'!$D$2:$D$100,'Ark1'!$A85)</f>
+        <v>0.12972972972972971</v>
+      </c>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -2390,10 +3090,18 @@
       <c r="H86" s="3">
         <v>0</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="I86" s="4">
+        <v>1.909722222222222E-2</v>
+      </c>
+      <c r="J86" s="4">
+        <v>2.523240371845949E-2</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0.13686679044098779</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0.1568302570330361</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -2417,10 +3125,18 @@
       <c r="H87" s="3">
         <v>1</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0.33993463423951892</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -2444,10 +3160,18 @@
       <c r="H88" s="3">
         <v>2</v>
       </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0.19230769230769229</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -2471,10 +3195,18 @@
       <c r="H89" s="3">
         <v>3</v>
       </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0.24944382578492949</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -2498,10 +3230,18 @@
       <c r="H90" s="3">
         <v>0</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="I90" s="4">
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="J90" s="4">
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0.10049854899791941</v>
+      </c>
+      <c r="L90" s="4">
+        <v>9.4068337079042302E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -2525,10 +3265,18 @@
       <c r="H91" s="3">
         <v>1</v>
       </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -2552,10 +3300,18 @@
       <c r="H92" s="3">
         <v>2</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="I92" s="4">
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0.20608041101101571</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -2579,10 +3335,18 @@
       <c r="H93" s="3">
         <v>3</v>
       </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -2606,10 +3370,18 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="I94" s="4">
+        <v>0.11634522863238921</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0.14984782956911741</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0.32063845122952161</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0.35692220096617999</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -2633,10 +3405,18 @@
       <c r="H95" s="3">
         <v>1</v>
       </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0.32055927330442369</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -2660,10 +3440,18 @@
       <c r="H96" s="3">
         <v>2</v>
       </c>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="I96" s="4">
+        <v>0.11438375750643411</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0.16855260935652761</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0.31827678760026368</v>
+      </c>
+      <c r="L96" s="4">
+        <v>0.37435628382015101</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -2687,10 +3475,18 @@
       <c r="H97" s="3">
         <v>3</v>
       </c>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="I97" s="4">
+        <v>7.6749435665914217E-2</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0.15731573157315731</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0.26619346308817943</v>
+      </c>
+      <c r="L97" s="4">
+        <v>0.36409819029042112</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -2714,10 +3510,18 @@
       <c r="H98" s="3">
         <v>0</v>
       </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="I98" s="4">
+        <v>6.3223938223938222E-2</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.1146621811045697</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0.24336530537320611</v>
+      </c>
+      <c r="L98" s="4">
+        <v>0.31861381848393289</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -2741,10 +3545,18 @@
       <c r="H99" s="3">
         <v>1</v>
       </c>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0.15625</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
+      </c>
+      <c r="L99" s="4">
+        <v>0.36309218870694532</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -2768,10 +3580,18 @@
       <c r="H100" s="3">
         <v>2</v>
       </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="I100" s="4">
+        <v>6.3106796116504854E-2</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0.24315494730812029</v>
+      </c>
+      <c r="L100" s="4">
+        <v>0.36080121229410989</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -2795,10 +3615,18 @@
       <c r="H101" s="3">
         <v>3</v>
       </c>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="I101" s="4">
+        <v>4.2606516290726808E-2</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0.1184573002754821</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0.20196831697148651</v>
+      </c>
+      <c r="L101" s="4">
+        <v>0.32314883302733183</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -2809,10 +3637,20 @@
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="I102" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B102,'Ark3'!$D$2:$D$100,'Ark1'!$A102)</f>
+        <v>0.16787264833574531</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0.1635388739946381</v>
+      </c>
+      <c r="K102" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B102,'Ark3'!$D$2:$D$100,'Ark1'!$A102)</f>
+        <v>0.16787264833574531</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0.36985660827840289</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -2824,10 +3662,20 @@
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="I103" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B103,'Ark3'!$D$2:$D$100,'Ark1'!$A103)</f>
+        <v>0.15083333333333329</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0.14724409448818901</v>
+      </c>
+      <c r="K103" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B103,'Ark3'!$D$2:$D$100,'Ark1'!$A103)</f>
+        <v>0.15083333333333329</v>
+      </c>
+      <c r="L103" s="4">
+        <v>0.35434908088852468</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -2839,10 +3687,20 @@
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="I104" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B104,'Ark3'!$D$2:$D$100,'Ark1'!$A104)</f>
+        <v>0.1795968234575443</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0.17633674630261659</v>
+      </c>
+      <c r="K104" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B104,'Ark3'!$D$2:$D$100,'Ark1'!$A104)</f>
+        <v>0.1795968234575443</v>
+      </c>
+      <c r="L104" s="4">
+        <v>0.38110641323129579</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -2854,10 +3712,20 @@
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="I105" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B105,'Ark3'!$D$2:$D$100,'Ark1'!$A105)</f>
+        <v>0.16542473919523101</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0.1693811074918567</v>
+      </c>
+      <c r="K105" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B105,'Ark3'!$D$2:$D$100,'Ark1'!$A105)</f>
+        <v>0.16542473919523101</v>
+      </c>
+      <c r="L105" s="4">
+        <v>0.37508818685302359</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -2869,10 +3737,20 @@
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="I106" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B106,'Ark3'!$D$2:$D$100,'Ark1'!$A106)</f>
+        <v>0.14798850574712641</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0.14643799472295521</v>
+      </c>
+      <c r="K106" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B106,'Ark3'!$D$2:$D$100,'Ark1'!$A106)</f>
+        <v>0.14798850574712641</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0.35354477569959208</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -2884,10 +3762,20 @@
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="I107" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B107,'Ark3'!$D$2:$D$100,'Ark1'!$A107)</f>
+        <v>0.1822759315206445</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0.1763593380614657</v>
+      </c>
+      <c r="K107" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B107,'Ark3'!$D$2:$D$100,'Ark1'!$A107)</f>
+        <v>0.1822759315206445</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0.38112559864169099</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -2899,10 +3787,20 @@
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
+      <c r="I108" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B108,'Ark3'!$D$2:$D$100,'Ark1'!$A108)</f>
+        <v>0.1622971285892634</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.1647196261682243</v>
+      </c>
+      <c r="K108" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B108,'Ark3'!$D$2:$D$100,'Ark1'!$A108)</f>
+        <v>0.1622971285892634</v>
+      </c>
+      <c r="L108" s="4">
+        <v>0.37092731218289221</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -2914,10 +3812,20 @@
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
+      <c r="I109" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B109,'Ark3'!$D$2:$D$100,'Ark1'!$A109)</f>
+        <v>0.1400512382578992</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0.13946117274167991</v>
+      </c>
+      <c r="K109" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B109,'Ark3'!$D$2:$D$100,'Ark1'!$A109)</f>
+        <v>0.1400512382578992</v>
+      </c>
+      <c r="L109" s="4">
+        <v>0.3464271265925854</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -2929,10 +3837,20 @@
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="I110" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B110,'Ark3'!$D$2:$D$100,'Ark1'!$A110)</f>
+        <v>0.1457364341085271</v>
+      </c>
+      <c r="J110" s="4">
+        <v>0.1354466858789625</v>
+      </c>
+      <c r="K110" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B110,'Ark3'!$D$2:$D$100,'Ark1'!$A110)</f>
+        <v>0.1457364341085271</v>
+      </c>
+      <c r="L110" s="4">
+        <v>0.34220006014518489</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -2956,10 +3874,18 @@
       <c r="H111" s="3">
         <v>0</v>
       </c>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="I111" s="4">
+        <v>1.7021276595744681E-2</v>
+      </c>
+      <c r="J111" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0.12935050343464391</v>
+      </c>
+      <c r="L111" s="4">
+        <v>0.1739926363384382</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -2983,10 +3909,18 @@
       <c r="H112" s="3">
         <v>1</v>
       </c>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -3010,10 +3944,18 @@
       <c r="H113" s="3">
         <v>2</v>
       </c>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="I113" s="4">
+        <v>1.515151515151515E-2</v>
+      </c>
+      <c r="J113" s="4">
+        <v>2.4390243902439029E-2</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0.1221554204287659</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0.15425744683748191</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -3037,10 +3979,18 @@
       <c r="H114" s="3">
         <v>3</v>
       </c>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114" s="4">
+        <v>0.36080121229410989</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -3064,10 +4014,18 @@
       <c r="H115" s="3">
         <v>0</v>
       </c>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="I115" s="4">
+        <v>8.0428954423592495E-3</v>
+      </c>
+      <c r="J115" s="4">
+        <v>2.3809523809523812E-2</v>
+      </c>
+      <c r="K115" s="4">
+        <v>8.9320810986368251E-2</v>
+      </c>
+      <c r="L115" s="4">
+        <v>0.15245533898649641</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -3091,10 +4049,18 @@
       <c r="H116" s="3">
         <v>1</v>
       </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0.22906142364542559</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -3118,10 +4084,18 @@
       <c r="H117" s="3">
         <v>2</v>
       </c>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="4">
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
+        <v>0</v>
+      </c>
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -3145,10 +4119,18 @@
       <c r="H118" s="3">
         <v>3</v>
       </c>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="4">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
+        <v>0</v>
+      </c>
+      <c r="L118" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -3172,10 +4154,18 @@
       <c r="H119" s="3">
         <v>0</v>
       </c>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="I119" s="4">
+        <v>0.1755972531192572</v>
+      </c>
+      <c r="J119" s="4">
+        <v>0.14578506505079311</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0.3804771449328182</v>
+      </c>
+      <c r="L119" s="4">
+        <v>0.35289060607917738</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -3199,10 +4189,18 @@
       <c r="H120" s="3">
         <v>1</v>
       </c>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="I120" s="4">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J120" s="4">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0.28747978728803442</v>
+      </c>
+      <c r="L120" s="4">
+        <v>0.28747978728803453</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -3226,10 +4224,18 @@
       <c r="H121" s="3">
         <v>2</v>
       </c>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="I121" s="4">
+        <v>0.194088825667773</v>
+      </c>
+      <c r="J121" s="4">
+        <v>0.13747645951035781</v>
+      </c>
+      <c r="K121" s="4">
+        <v>0.39549760229194553</v>
+      </c>
+      <c r="L121" s="4">
+        <v>0.34434965164909742</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -3253,10 +4259,18 @@
       <c r="H122" s="3">
         <v>3</v>
       </c>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="I122" s="4">
+        <v>0.19312169312169311</v>
+      </c>
+      <c r="J122" s="4">
+        <v>0.15226337448559671</v>
+      </c>
+      <c r="K122" s="4">
+        <v>0.39474764694359321</v>
+      </c>
+      <c r="L122" s="4">
+        <v>0.35927599318052922</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -3280,10 +4294,18 @@
       <c r="H123" s="3">
         <v>0</v>
       </c>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="I123" s="4">
+        <v>0.1124602486267707</v>
+      </c>
+      <c r="J123" s="4">
+        <v>0.1339522546419098</v>
+      </c>
+      <c r="K123" s="4">
+        <v>0.31593186149164448</v>
+      </c>
+      <c r="L123" s="4">
+        <v>0.34060101015448963</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -3307,10 +4329,18 @@
       <c r="H124" s="3">
         <v>1</v>
       </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="I124" s="4">
+        <v>0.23076923076923081</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0</v>
+      </c>
+      <c r="K124" s="4">
+        <v>0.42132504423474321</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -3334,10 +4364,18 @@
       <c r="H125" s="3">
         <v>2</v>
       </c>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="I125" s="4">
+        <v>0.13005464480874321</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0.13175675675675669</v>
+      </c>
+      <c r="K125" s="4">
+        <v>0.33636354465431417</v>
+      </c>
+      <c r="L125" s="4">
+        <v>0.33822612821261688</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -3361,10 +4399,18 @@
       <c r="H126" s="3">
         <v>3</v>
       </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="I126" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0.1107142857142857</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0.32496153618543838</v>
+      </c>
+      <c r="L126" s="4">
+        <v>0.31377799899460962</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -3375,10 +4421,20 @@
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="I127" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B127,'Ark3'!$D$2:$D$100,'Ark1'!$A127)</f>
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0.13063763608087089</v>
+      </c>
+      <c r="K127" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B127,'Ark3'!$D$2:$D$100,'Ark1'!$A127)</f>
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0.33700362627139913</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -3390,10 +4446,20 @@
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="I128" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B128,'Ark3'!$D$2:$D$100,'Ark1'!$A128)</f>
+        <v>0.13631840796019901</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0.139906103286385</v>
+      </c>
+      <c r="K128" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B128,'Ark3'!$D$2:$D$100,'Ark1'!$A128)</f>
+        <v>0.13631840796019901</v>
+      </c>
+      <c r="L128" s="4">
+        <v>0.3468895869719994</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3405,10 +4471,20 @@
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="I129" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B129,'Ark3'!$D$2:$D$100,'Ark1'!$A129)</f>
+        <v>0.14665653495440731</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0.14164904862579281</v>
+      </c>
+      <c r="K129" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B129,'Ark3'!$D$2:$D$100,'Ark1'!$A129)</f>
+        <v>0.14665653495440731</v>
+      </c>
+      <c r="L129" s="4">
+        <v>0.34868982728092401</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -3420,10 +4496,20 @@
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="I130" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B130,'Ark3'!$D$2:$D$100,'Ark1'!$A130)</f>
+        <v>0.1275415896487985</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0.12227324913892081</v>
+      </c>
+      <c r="K130" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B130,'Ark3'!$D$2:$D$100,'Ark1'!$A130)</f>
+        <v>0.1275415896487985</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0.32760113199427782</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -3435,10 +4521,20 @@
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="I131" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B131,'Ark3'!$D$2:$D$100,'Ark1'!$A131)</f>
+        <v>0.14734299516908211</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0.14765840220385679</v>
+      </c>
+      <c r="K131" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B131,'Ark3'!$D$2:$D$100,'Ark1'!$A131)</f>
+        <v>0.14734299516908211</v>
+      </c>
+      <c r="L131" s="4">
+        <v>0.35476104417263848</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -3450,10 +4546,20 @@
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="I132" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B132,'Ark3'!$D$2:$D$100,'Ark1'!$A132)</f>
+        <v>0.12625</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0.1236151603498542</v>
+      </c>
+      <c r="K132" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B132,'Ark3'!$D$2:$D$100,'Ark1'!$A132)</f>
+        <v>0.12625</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0.32914199440596159</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -3465,10 +4571,20 @@
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="I133" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B133,'Ark3'!$D$2:$D$100,'Ark1'!$A133)</f>
+        <v>0.15177195685670261</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0.14347826086956519</v>
+      </c>
+      <c r="K133" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B133,'Ark3'!$D$2:$D$100,'Ark1'!$A133)</f>
+        <v>0.15177195685670261</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0.3505599086139346</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -3480,10 +4596,20 @@
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="I134" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B134,'Ark3'!$D$2:$D$100,'Ark1'!$A134)</f>
+        <v>0.15076923076923079</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.14775977121067679</v>
+      </c>
+      <c r="K134" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B134,'Ark3'!$D$2:$D$100,'Ark1'!$A134)</f>
+        <v>0.15076923076923079</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0.35486169308963922</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -3495,10 +4621,20 @@
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="I135" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B135,'Ark3'!$D$2:$D$100,'Ark1'!$A135)</f>
+        <v>0.13774597495527729</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.13902847571189281</v>
+      </c>
+      <c r="K135" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B135,'Ark3'!$D$2:$D$100,'Ark1'!$A135)</f>
+        <v>0.13774597495527729</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0.34597624001240379</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -3522,10 +4658,18 @@
       <c r="H136" s="3">
         <v>0</v>
       </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="I136" s="4">
+        <v>1.8666666666666672E-2</v>
+      </c>
+      <c r="J136" s="4">
+        <v>3.4662045060658578E-2</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0.1353448270981282</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0.1829223542732584</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -3549,10 +4693,18 @@
       <c r="H137" s="3">
         <v>1</v>
       </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0.38569460791993498</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -3576,10 +4728,18 @@
       <c r="H138" s="3">
         <v>2</v>
       </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
+      <c r="J138" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0.24944382578492941</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -3603,10 +4763,18 @@
       <c r="H139" s="3">
         <v>3</v>
       </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="I139" s="4">
+        <v>0</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0</v>
+      </c>
+      <c r="K139" s="4">
+        <v>0</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -3630,10 +4798,18 @@
       <c r="H140" s="3">
         <v>0</v>
       </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="I140" s="4">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="J140" s="4">
+        <v>1.4814814814814821E-2</v>
+      </c>
+      <c r="K140" s="4">
+        <v>5.8420281195999943E-2</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0.1208111587429636</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -3657,10 +4833,18 @@
       <c r="H141" s="3">
         <v>1</v>
       </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="I141" s="4">
+        <v>0</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -3684,10 +4868,18 @@
       <c r="H142" s="3">
         <v>2</v>
       </c>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
+      <c r="I142" s="4">
+        <v>0</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0</v>
+      </c>
+      <c r="K142" s="4">
+        <v>0</v>
+      </c>
+      <c r="L142" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -3711,10 +4903,18 @@
       <c r="H143" s="3">
         <v>3</v>
       </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
+      <c r="I143" s="4">
+        <v>0</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0</v>
+      </c>
+      <c r="L143" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -3738,10 +4938,18 @@
       <c r="H144" s="3">
         <v>0</v>
       </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
+      <c r="I144" s="4">
+        <v>0.1341308368007397</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.1156884875846501</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0.3407928335805685</v>
+      </c>
+      <c r="L144" s="4">
+        <v>0.31985099878697643</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -3765,10 +4973,18 @@
       <c r="H145" s="3">
         <v>1</v>
       </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
+      <c r="I145" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J145" s="4">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.41573970964154899</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0.1855768722395226</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -3792,10 +5008,18 @@
       <c r="H146" s="3">
         <v>2</v>
       </c>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
+      <c r="I146" s="4">
+        <v>0.16239472720615161</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0.1089903181189488</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.3688125266063928</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0.31162706666026158</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -3819,10 +5043,18 @@
       <c r="H147" s="3">
         <v>3</v>
       </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
+      <c r="I147" s="4">
+        <v>0.16772151898734181</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0.13272727272727269</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0.37361880447311607</v>
+      </c>
+      <c r="L147" s="4">
+        <v>0.33927974269274158</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -3846,10 +5078,18 @@
       <c r="H148" s="3">
         <v>0</v>
       </c>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
+      <c r="I148" s="4">
+        <v>0.13095658312742681</v>
+      </c>
+      <c r="J148" s="4">
+        <v>0.1380837359098229</v>
+      </c>
+      <c r="K148" s="4">
+        <v>0.33735286639217421</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0.34498785165134321</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -3873,10 +5113,18 @@
       <c r="H149" s="3">
         <v>1</v>
       </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
+      <c r="I149" s="4">
+        <v>0</v>
+      </c>
+      <c r="J149" s="4">
+        <v>0</v>
+      </c>
+      <c r="K149" s="4">
+        <v>0</v>
+      </c>
+      <c r="L149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -3900,10 +5148,18 @@
       <c r="H150" s="3">
         <v>2</v>
       </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
+      <c r="I150" s="4">
+        <v>0.1432258064516129</v>
+      </c>
+      <c r="J150" s="4">
+        <v>0.1688311688311688</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0.35030297574799169</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0.3746027299183366</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -3927,10 +5183,18 @@
       <c r="H151" s="3">
         <v>3</v>
       </c>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
+      <c r="I151" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="J151" s="4">
+        <v>0.18552036199095021</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0.33630343441600469</v>
+      </c>
+      <c r="L151" s="4">
+        <v>0.3887191238898558</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -3941,10 +5205,20 @@
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
+      <c r="I152" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B152,'Ark3'!$D$2:$D$100,'Ark1'!$A152)</f>
+        <v>7.623318385650224E-2</v>
+      </c>
+      <c r="J152" s="4">
+        <v>6.7484662576687116E-2</v>
+      </c>
+      <c r="K152" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B152,'Ark3'!$D$2:$D$100,'Ark1'!$A152)</f>
+        <v>7.623318385650224E-2</v>
+      </c>
+      <c r="L152" s="4">
+        <v>0.2508594883467592</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -3956,10 +5230,20 @@
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
+      <c r="I153" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B153,'Ark3'!$D$2:$D$100,'Ark1'!$A153)</f>
+        <v>8.1769436997319034E-2</v>
+      </c>
+      <c r="J153" s="4">
+        <v>6.7088607594936706E-2</v>
+      </c>
+      <c r="K153" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B153,'Ark3'!$D$2:$D$100,'Ark1'!$A153)</f>
+        <v>8.1769436997319034E-2</v>
+      </c>
+      <c r="L153" s="4">
+        <v>0.25017539112772319</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -3971,10 +5255,20 @@
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
+      <c r="I154" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B154,'Ark3'!$D$2:$D$100,'Ark1'!$A154)</f>
+        <v>5.1567239635995958E-2</v>
+      </c>
+      <c r="J154" s="4">
+        <v>5.2532833020637902E-2</v>
+      </c>
+      <c r="K154" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B154,'Ark3'!$D$2:$D$100,'Ark1'!$A154)</f>
+        <v>5.1567239635995958E-2</v>
+      </c>
+      <c r="L154" s="4">
+        <v>0.2230989342768443</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -3986,10 +5280,20 @@
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
+      <c r="I155" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B155,'Ark3'!$D$2:$D$100,'Ark1'!$A155)</f>
+        <v>5.5732484076433123E-2</v>
+      </c>
+      <c r="J155" s="4">
+        <v>5.3293856402664687E-2</v>
+      </c>
+      <c r="K155" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B155,'Ark3'!$D$2:$D$100,'Ark1'!$A155)</f>
+        <v>5.5732484076433123E-2</v>
+      </c>
+      <c r="L155" s="4">
+        <v>0.22461883552453221</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -4001,10 +5305,20 @@
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
+      <c r="I156" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B156,'Ark3'!$D$2:$D$100,'Ark1'!$A156)</f>
+        <v>4.7656249999999997E-2</v>
+      </c>
+      <c r="J156" s="4">
+        <v>4.5845272206303717E-2</v>
+      </c>
+      <c r="K156" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B156,'Ark3'!$D$2:$D$100,'Ark1'!$A156)</f>
+        <v>4.7656249999999997E-2</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0.20914942797586999</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -4016,10 +5330,20 @@
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+      <c r="I157" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B157,'Ark3'!$D$2:$D$100,'Ark1'!$A157)</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="J157" s="4">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="K157" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B157,'Ark3'!$D$2:$D$100,'Ark1'!$A157)</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0.22709083630539631</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -4031,10 +5355,20 @@
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
+      <c r="I158" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B158,'Ark3'!$D$2:$D$100,'Ark1'!$A158)</f>
+        <v>6.749740394600208E-2</v>
+      </c>
+      <c r="J158" s="4">
+        <v>6.5621939275220378E-2</v>
+      </c>
+      <c r="K158" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B158,'Ark3'!$D$2:$D$100,'Ark1'!$A158)</f>
+        <v>6.749740394600208E-2</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0.24762007261322669</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -4046,10 +5380,20 @@
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
+      <c r="I159" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B159,'Ark3'!$D$2:$D$100,'Ark1'!$A159)</f>
+        <v>6.2841530054644809E-2</v>
+      </c>
+      <c r="J159" s="4">
+        <v>5.7106598984771571E-2</v>
+      </c>
+      <c r="K159" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B159,'Ark3'!$D$2:$D$100,'Ark1'!$A159)</f>
+        <v>6.2841530054644809E-2</v>
+      </c>
+      <c r="L159" s="4">
+        <v>0.23204619224879361</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -4061,10 +5405,20 @@
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
+      <c r="I160" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B160,'Ark3'!$D$2:$D$100,'Ark1'!$A160)</f>
+        <v>7.6732673267326731E-2</v>
+      </c>
+      <c r="J160" s="4">
+        <v>7.8160919540229884E-2</v>
+      </c>
+      <c r="K160" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B160,'Ark3'!$D$2:$D$100,'Ark1'!$A160)</f>
+        <v>7.6732673267326731E-2</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0.2684246452858895</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -4088,10 +5442,18 @@
       <c r="H161" s="3">
         <v>0</v>
       </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
+      <c r="I161" s="4">
+        <v>1.8315018315018319E-2</v>
+      </c>
+      <c r="J161" s="4">
+        <v>1.239669421487603E-2</v>
+      </c>
+      <c r="K161" s="4">
+        <v>0.13408795031299001</v>
+      </c>
+      <c r="L161" s="4">
+        <v>0.1106481639586437</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -4115,10 +5477,18 @@
       <c r="H162" s="3">
         <v>1</v>
       </c>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
+      <c r="I162" s="4">
+        <v>0</v>
+      </c>
+      <c r="J162" s="4">
+        <v>0</v>
+      </c>
+      <c r="K162" s="4">
+        <v>0</v>
+      </c>
+      <c r="L162" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -4142,10 +5512,18 @@
       <c r="H163" s="3">
         <v>2</v>
       </c>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
+      <c r="I163" s="4">
+        <v>0</v>
+      </c>
+      <c r="J163" s="4">
+        <v>0</v>
+      </c>
+      <c r="K163" s="4">
+        <v>0</v>
+      </c>
+      <c r="L163" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -4169,10 +5547,18 @@
       <c r="H164" s="3">
         <v>3</v>
       </c>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
+      <c r="I164" s="4">
+        <v>0</v>
+      </c>
+      <c r="J164" s="4">
+        <v>0</v>
+      </c>
+      <c r="K164" s="4">
+        <v>0</v>
+      </c>
+      <c r="L164" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -4196,10 +5582,18 @@
       <c r="H165" s="3">
         <v>0</v>
       </c>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
+      <c r="I165" s="4">
+        <v>1.310043668122271E-2</v>
+      </c>
+      <c r="J165" s="4">
+        <v>3.0612244897959179E-2</v>
+      </c>
+      <c r="K165" s="4">
+        <v>0.1137049481772187</v>
+      </c>
+      <c r="L165" s="4">
+        <v>0.17226472465442991</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -4223,10 +5617,18 @@
       <c r="H166" s="3">
         <v>1</v>
       </c>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
+      <c r="I166" s="4">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J166" s="4">
+        <v>0</v>
+      </c>
+      <c r="K166" s="4">
+        <v>0.25753937681885641</v>
+      </c>
+      <c r="L166" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -4250,10 +5652,18 @@
       <c r="H167" s="3">
         <v>2</v>
       </c>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
+      <c r="I167" s="4">
+        <v>4.3478260869565223E-2</v>
+      </c>
+      <c r="J167" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K167" s="4">
+        <v>0.20393111999232311</v>
+      </c>
+      <c r="L167" s="4">
+        <v>0.47140452079103168</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -4277,10 +5687,18 @@
       <c r="H168" s="3">
         <v>3</v>
       </c>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
+      <c r="I168" s="4">
+        <v>0</v>
+      </c>
+      <c r="J168" s="4">
+        <v>0</v>
+      </c>
+      <c r="K168" s="4">
+        <v>0</v>
+      </c>
+      <c r="L168" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -4304,10 +5722,18 @@
       <c r="H169" s="3">
         <v>0</v>
       </c>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
+      <c r="I169" s="4">
+        <v>5.4042461934377013E-2</v>
+      </c>
+      <c r="J169" s="4">
+        <v>4.5159313725490202E-2</v>
+      </c>
+      <c r="K169" s="4">
+        <v>0.22610146890820601</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0.20765343750906931</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -4331,10 +5757,18 @@
       <c r="H170" s="3">
         <v>1</v>
       </c>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
+      <c r="I170" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J170" s="4">
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="K170" s="4">
+        <v>0.48989794855663571</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0.36464227527765841</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -4358,10 +5792,18 @@
       <c r="H171" s="3">
         <v>2</v>
       </c>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
+      <c r="I171" s="4">
+        <v>6.4808670648086708E-2</v>
+      </c>
+      <c r="J171" s="4">
+        <v>3.7435284747112697E-2</v>
+      </c>
+      <c r="K171" s="4">
+        <v>0.24618795026750301</v>
+      </c>
+      <c r="L171" s="4">
+        <v>0.18982593132397721</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -4385,10 +5827,18 @@
       <c r="H172" s="3">
         <v>3</v>
       </c>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
+      <c r="I172" s="4">
+        <v>6.6147859922178989E-2</v>
+      </c>
+      <c r="J172" s="4">
+        <v>6.3451776649746189E-2</v>
+      </c>
+      <c r="K172" s="4">
+        <v>0.24854038011939791</v>
+      </c>
+      <c r="L172" s="4">
+        <v>0.2437737653844993</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -4412,10 +5862,18 @@
       <c r="H173" s="3">
         <v>0</v>
       </c>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
+      <c r="I173" s="4">
+        <v>7.5892857142857137E-2</v>
+      </c>
+      <c r="J173" s="4">
+        <v>6.5007618080243773E-2</v>
+      </c>
+      <c r="K173" s="4">
+        <v>0.26482660624935528</v>
+      </c>
+      <c r="L173" s="4">
+        <v>0.246539302489029</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -4439,10 +5897,18 @@
       <c r="H174" s="3">
         <v>1</v>
       </c>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
+      <c r="I174" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J174" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K174" s="4">
+        <v>0.31426968052735438</v>
+      </c>
+      <c r="L174" s="4">
+        <v>0.31426968052735438</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -4466,10 +5932,18 @@
       <c r="H175" s="3">
         <v>2</v>
       </c>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
+      <c r="I175" s="4">
+        <v>8.3743842364532015E-2</v>
+      </c>
+      <c r="J175" s="4">
+        <v>4.9382716049382713E-2</v>
+      </c>
+      <c r="K175" s="4">
+        <v>0.27700326934994179</v>
+      </c>
+      <c r="L175" s="4">
+        <v>0.21666578734301539</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -4493,10 +5967,18 @@
       <c r="H176" s="3">
         <v>3</v>
       </c>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
+      <c r="I176" s="4">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="J176" s="4">
+        <v>4.4871794871794872E-2</v>
+      </c>
+      <c r="K176" s="4">
+        <v>0.27207877553692622</v>
+      </c>
+      <c r="L176" s="4">
+        <v>0.20702250335839931</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -4507,10 +5989,20 @@
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
+      <c r="I177" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B177,'Ark3'!$D$2:$D$100,'Ark1'!$A177)</f>
+        <v>0.1057692307692308</v>
+      </c>
+      <c r="J177" s="4">
+        <v>9.6491228070175433E-2</v>
+      </c>
+      <c r="K177" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B177,'Ark3'!$D$2:$D$100,'Ark1'!$A177)</f>
+        <v>0.1057692307692308</v>
+      </c>
+      <c r="L177" s="4">
+        <v>0.29526373122292687</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -4522,10 +6014,20 @@
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
+      <c r="I178" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B178,'Ark3'!$D$2:$D$100,'Ark1'!$A178)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J178" s="4">
+        <v>6.8702290076335881E-2</v>
+      </c>
+      <c r="K178" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B178,'Ark3'!$D$2:$D$100,'Ark1'!$A178)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L178" s="4">
+        <v>0.25294719886688383</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -4537,10 +6039,20 @@
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
+      <c r="I179" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B179,'Ark3'!$D$2:$D$100,'Ark1'!$A179)</f>
+        <v>6.3732928679817905E-2</v>
+      </c>
+      <c r="J179" s="4">
+        <v>6.7605633802816895E-2</v>
+      </c>
+      <c r="K179" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B179,'Ark3'!$D$2:$D$100,'Ark1'!$A179)</f>
+        <v>6.3732928679817905E-2</v>
+      </c>
+      <c r="L179" s="4">
+        <v>0.25106794315670072</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -4552,10 +6064,20 @@
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
+      <c r="I180" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B180,'Ark3'!$D$2:$D$100,'Ark1'!$A180)</f>
+        <v>6.5430752453653221E-2</v>
+      </c>
+      <c r="J180" s="4">
+        <v>6.0544904137235123E-2</v>
+      </c>
+      <c r="K180" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B180,'Ark3'!$D$2:$D$100,'Ark1'!$A180)</f>
+        <v>6.5430752453653221E-2</v>
+      </c>
+      <c r="L180" s="4">
+        <v>0.23849364503115819</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -4567,10 +6089,20 @@
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
+      <c r="I181" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B181,'Ark3'!$D$2:$D$100,'Ark1'!$A181)</f>
+        <v>7.309322033898305E-2</v>
+      </c>
+      <c r="J181" s="4">
+        <v>6.4642507345739467E-2</v>
+      </c>
+      <c r="K181" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B181,'Ark3'!$D$2:$D$100,'Ark1'!$A181)</f>
+        <v>7.309322033898305E-2</v>
+      </c>
+      <c r="L181" s="4">
+        <v>0.24589398851902719</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -4582,10 +6114,20 @@
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
+      <c r="I182" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B182,'Ark3'!$D$2:$D$100,'Ark1'!$A182)</f>
+        <v>8.0091533180778038E-2</v>
+      </c>
+      <c r="J182" s="4">
+        <v>7.6190476190476197E-2</v>
+      </c>
+      <c r="K182" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B182,'Ark3'!$D$2:$D$100,'Ark1'!$A182)</f>
+        <v>8.0091533180778038E-2</v>
+      </c>
+      <c r="L182" s="4">
+        <v>0.26530263385112612</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -4597,10 +6139,20 @@
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
+      <c r="I183" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B183,'Ark3'!$D$2:$D$100,'Ark1'!$A183)</f>
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="J183" s="4">
+        <v>6.9405099150141647E-2</v>
+      </c>
+      <c r="K183" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B183,'Ark3'!$D$2:$D$100,'Ark1'!$A183)</f>
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="L183" s="4">
+        <v>0.25414175446411919</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -4612,10 +6164,20 @@
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
+      <c r="I184" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B184,'Ark3'!$D$2:$D$100,'Ark1'!$A184)</f>
+        <v>7.9741379310344834E-2</v>
+      </c>
+      <c r="J184" s="4">
+        <v>7.847082494969819E-2</v>
+      </c>
+      <c r="K184" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B184,'Ark3'!$D$2:$D$100,'Ark1'!$A184)</f>
+        <v>7.9741379310344834E-2</v>
+      </c>
+      <c r="L184" s="4">
+        <v>0.26891105328976722</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -4627,10 +6189,20 @@
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
+      <c r="I185" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B185,'Ark3'!$D$2:$D$100,'Ark1'!$A185)</f>
+        <v>9.602649006622517E-2</v>
+      </c>
+      <c r="J185" s="4">
+        <v>8.4112149532710276E-2</v>
+      </c>
+      <c r="K185" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B185,'Ark3'!$D$2:$D$100,'Ark1'!$A185)</f>
+        <v>9.602649006622517E-2</v>
+      </c>
+      <c r="L185" s="4">
+        <v>0.2775559328021962</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -4654,10 +6226,18 @@
       <c r="H186" s="3">
         <v>0</v>
       </c>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
+      <c r="I186" s="4">
+        <v>0.30097087378640769</v>
+      </c>
+      <c r="J186" s="4">
+        <v>0.36010362694300518</v>
+      </c>
+      <c r="K186" s="4">
+        <v>0.45868007033078512</v>
+      </c>
+      <c r="L186" s="4">
+        <v>0.48003021238823929</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -4681,10 +6261,18 @@
       <c r="H187" s="3">
         <v>1</v>
       </c>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
+      <c r="I187" s="4">
+        <v>0</v>
+      </c>
+      <c r="J187" s="4">
+        <v>0</v>
+      </c>
+      <c r="K187" s="4">
+        <v>0</v>
+      </c>
+      <c r="L187" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -4708,10 +6296,18 @@
       <c r="H188" s="3">
         <v>2</v>
       </c>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
+      <c r="I188" s="4">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="J188" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="K188" s="4">
+        <v>0.44034738238635562</v>
+      </c>
+      <c r="L188" s="4">
+        <v>0.46647615158762412</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -4735,10 +6331,18 @@
       <c r="H189" s="3">
         <v>3</v>
       </c>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
+      <c r="I189" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J189" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K189" s="4">
+        <v>0.48989794855663571</v>
+      </c>
+      <c r="L189" s="4">
+        <v>0.41573970964154899</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -4762,10 +6366,18 @@
       <c r="H190" s="3">
         <v>0</v>
       </c>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
+      <c r="I190" s="4">
+        <v>0.17159763313609469</v>
+      </c>
+      <c r="J190" s="4">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="K190" s="4">
+        <v>0.37703035081831932</v>
+      </c>
+      <c r="L190" s="4">
+        <v>0.46423076597919782</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -4789,10 +6401,18 @@
       <c r="H191" s="3">
         <v>1</v>
       </c>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
+      <c r="I191" s="4">
+        <v>0</v>
+      </c>
+      <c r="J191" s="4">
+        <v>0</v>
+      </c>
+      <c r="K191" s="4">
+        <v>0</v>
+      </c>
+      <c r="L191" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
@@ -4816,10 +6436,18 @@
       <c r="H192" s="3">
         <v>2</v>
       </c>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
+      <c r="I192" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="J192" s="4">
+        <v>1</v>
+      </c>
+      <c r="K192" s="4">
+        <v>0.39031237489989989</v>
+      </c>
+      <c r="L192" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -4843,10 +6471,18 @@
       <c r="H193" s="3">
         <v>3</v>
       </c>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
+      <c r="I193" s="4">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J193" s="4">
+        <v>1</v>
+      </c>
+      <c r="K193" s="4">
+        <v>0.28747978728803442</v>
+      </c>
+      <c r="L193" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -4870,10 +6506,18 @@
       <c r="H194" s="3">
         <v>0</v>
       </c>
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
+      <c r="I194" s="4">
+        <v>7.9075882794891056E-2</v>
+      </c>
+      <c r="J194" s="4">
+        <v>6.3497004124192666E-2</v>
+      </c>
+      <c r="K194" s="4">
+        <v>0.2698571613930224</v>
+      </c>
+      <c r="L194" s="4">
+        <v>0.24385474076065219</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -4897,10 +6541,18 @@
       <c r="H195" s="3">
         <v>1</v>
       </c>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
+      <c r="I195" s="4">
+        <v>0</v>
+      </c>
+      <c r="J195" s="4">
+        <v>0</v>
+      </c>
+      <c r="K195" s="4">
+        <v>0</v>
+      </c>
+      <c r="L195" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -4924,10 +6576,18 @@
       <c r="H196" s="3">
         <v>2</v>
       </c>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
+      <c r="I196" s="4">
+        <v>7.4566473988439311E-2</v>
+      </c>
+      <c r="J196" s="4">
+        <v>4.4554455445544552E-2</v>
+      </c>
+      <c r="K196" s="4">
+        <v>0.26269053074934151</v>
+      </c>
+      <c r="L196" s="4">
+        <v>0.2063234255858882</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -4951,10 +6611,18 @@
       <c r="H197" s="3">
         <v>3</v>
       </c>
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
+      <c r="I197" s="4">
+        <v>6.9148936170212769E-2</v>
+      </c>
+      <c r="J197" s="4">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="K197" s="4">
+        <v>0.25370723441940041</v>
+      </c>
+      <c r="L197" s="4">
+        <v>0.26189140043946207</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -4978,10 +6646,18 @@
       <c r="H198" s="3">
         <v>0</v>
       </c>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
+      <c r="I198" s="4">
+        <v>0.1199524940617577</v>
+      </c>
+      <c r="J198" s="4">
+        <v>9.4056172436316129E-2</v>
+      </c>
+      <c r="K198" s="4">
+        <v>0.32490597598400939</v>
+      </c>
+      <c r="L198" s="4">
+        <v>0.29190684963348512</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -5005,10 +6681,18 @@
       <c r="H199" s="3">
         <v>1</v>
       </c>
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
+      <c r="I199" s="4">
+        <v>0</v>
+      </c>
+      <c r="J199" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K199" s="4">
+        <v>0</v>
+      </c>
+      <c r="L199" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -5032,10 +6716,18 @@
       <c r="H200" s="3">
         <v>2</v>
       </c>
-      <c r="I200" s="4"/>
-      <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
+      <c r="I200" s="4">
+        <v>0.1072210065645514</v>
+      </c>
+      <c r="J200" s="4">
+        <v>5.6074766355140193E-2</v>
+      </c>
+      <c r="K200" s="4">
+        <v>0.30939402436995428</v>
+      </c>
+      <c r="L200" s="4">
+        <v>0.23006604906712469</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -5059,10 +6751,18 @@
       <c r="H201" s="3">
         <v>3</v>
       </c>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
+      <c r="I201" s="4">
+        <v>0.1242603550295858</v>
+      </c>
+      <c r="J201" s="4">
+        <v>8.4905660377358486E-2</v>
+      </c>
+      <c r="K201" s="4">
+        <v>0.32987833999446992</v>
+      </c>
+      <c r="L201" s="4">
+        <v>0.27874125854139908</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -5073,10 +6773,20 @@
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
+      <c r="I202" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B202,'Ark3'!$D$2:$D$100,'Ark1'!$A202)</f>
+        <v>5.6034482758620691E-2</v>
+      </c>
+      <c r="J202" s="4">
+        <v>6.5306122448979598E-2</v>
+      </c>
+      <c r="K202" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B202,'Ark3'!$D$2:$D$100,'Ark1'!$A202)</f>
+        <v>5.6034482758620691E-2</v>
+      </c>
+      <c r="L202" s="4">
+        <v>0.2470652400068826</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -5088,10 +6798,20 @@
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
+      <c r="I203" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B203,'Ark3'!$D$2:$D$100,'Ark1'!$A203)</f>
+        <v>7.5409836065573776E-2</v>
+      </c>
+      <c r="J203" s="4">
+        <v>7.4303405572755415E-2</v>
+      </c>
+      <c r="K203" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B203,'Ark3'!$D$2:$D$100,'Ark1'!$A203)</f>
+        <v>7.5409836065573776E-2</v>
+      </c>
+      <c r="L203" s="4">
+        <v>0.26226400723897669</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -5103,10 +6823,20 @@
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
+      <c r="I204" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B204,'Ark3'!$D$2:$D$100,'Ark1'!$A204)</f>
+        <v>5.3908355795148251E-2</v>
+      </c>
+      <c r="J204" s="4">
+        <v>4.7146401985111663E-2</v>
+      </c>
+      <c r="K204" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B204,'Ark3'!$D$2:$D$100,'Ark1'!$A204)</f>
+        <v>5.3908355795148251E-2</v>
+      </c>
+      <c r="L204" s="4">
+        <v>0.2119519255986364</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -5118,10 +6848,20 @@
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
+      <c r="I205" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B205,'Ark3'!$D$2:$D$100,'Ark1'!$A205)</f>
+        <v>4.145077720207254E-2</v>
+      </c>
+      <c r="J205" s="4">
+        <v>3.9808917197452227E-2</v>
+      </c>
+      <c r="K205" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B205,'Ark3'!$D$2:$D$100,'Ark1'!$A205)</f>
+        <v>4.145077720207254E-2</v>
+      </c>
+      <c r="L205" s="4">
+        <v>0.19551001843644389</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -5133,10 +6873,20 @@
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
+      <c r="I206" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B206,'Ark3'!$D$2:$D$100,'Ark1'!$A206)</f>
+        <v>3.5256410256410263E-2</v>
+      </c>
+      <c r="J206" s="4">
+        <v>2.9806259314456039E-2</v>
+      </c>
+      <c r="K206" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B206,'Ark3'!$D$2:$D$100,'Ark1'!$A206)</f>
+        <v>3.5256410256410263E-2</v>
+      </c>
+      <c r="L206" s="4">
+        <v>0.1700524807820675</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -5148,10 +6898,20 @@
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
+      <c r="I207" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B207,'Ark3'!$D$2:$D$100,'Ark1'!$A207)</f>
+        <v>5.1418439716312048E-2</v>
+      </c>
+      <c r="J207" s="4">
+        <v>5.1324503311258277E-2</v>
+      </c>
+      <c r="K207" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B207,'Ark3'!$D$2:$D$100,'Ark1'!$A207)</f>
+        <v>5.1418439716312048E-2</v>
+      </c>
+      <c r="L207" s="4">
+        <v>0.22065878335364519</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -5163,10 +6923,20 @@
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
+      <c r="I208" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B208,'Ark3'!$D$2:$D$100,'Ark1'!$A208)</f>
+        <v>4.960835509138381E-2</v>
+      </c>
+      <c r="J208" s="4">
+        <v>4.8426150121065367E-2</v>
+      </c>
+      <c r="K208" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B208,'Ark3'!$D$2:$D$100,'Ark1'!$A208)</f>
+        <v>4.960835509138381E-2</v>
+      </c>
+      <c r="L208" s="4">
+        <v>0.2146649904048572</v>
+      </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -5178,10 +6948,20 @@
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
-      <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
-      <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
+      <c r="I209" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B209,'Ark3'!$D$2:$D$100,'Ark1'!$A209)</f>
+        <v>6.8728522336769765E-2</v>
+      </c>
+      <c r="J209" s="4">
+        <v>6.8403908794788276E-2</v>
+      </c>
+      <c r="K209" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B209,'Ark3'!$D$2:$D$100,'Ark1'!$A209)</f>
+        <v>6.8728522336769765E-2</v>
+      </c>
+      <c r="L209" s="4">
+        <v>0.25243774293156429</v>
+      </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -5193,10 +6973,20 @@
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
-      <c r="I210" s="4"/>
-      <c r="J210" s="4"/>
-      <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
+      <c r="I210" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B210,'Ark3'!$D$2:$D$100,'Ark1'!$A210)</f>
+        <v>8.8785046728971959E-2</v>
+      </c>
+      <c r="J210" s="4">
+        <v>8.3700440528634359E-2</v>
+      </c>
+      <c r="K210" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B210,'Ark3'!$D$2:$D$100,'Ark1'!$A210)</f>
+        <v>8.8785046728971959E-2</v>
+      </c>
+      <c r="L210" s="4">
+        <v>0.27693803780619758</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -5220,10 +7010,18 @@
       <c r="H211" s="3">
         <v>0</v>
       </c>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
-      <c r="K211" s="4"/>
-      <c r="L211" s="4"/>
+      <c r="I211" s="4">
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="J211" s="4">
+        <v>0.12913907284768211</v>
+      </c>
+      <c r="K211" s="4">
+        <v>0.36634824136416611</v>
+      </c>
+      <c r="L211" s="4">
+        <v>0.33535380229203182</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -5247,10 +7045,18 @@
       <c r="H212" s="3">
         <v>1</v>
       </c>
-      <c r="I212" s="4"/>
-      <c r="J212" s="4"/>
-      <c r="K212" s="4"/>
-      <c r="L212" s="4"/>
+      <c r="I212" s="4">
+        <v>0</v>
+      </c>
+      <c r="J212" s="4">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="K212" s="4">
+        <v>0</v>
+      </c>
+      <c r="L212" s="4">
+        <v>0.372677996249965</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -5274,10 +7080,18 @@
       <c r="H213" s="3">
         <v>2</v>
       </c>
-      <c r="I213" s="4"/>
-      <c r="J213" s="4"/>
-      <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
+      <c r="I213" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="J213" s="4">
+        <v>0</v>
+      </c>
+      <c r="K213" s="4">
+        <v>0.36660605559646708</v>
+      </c>
+      <c r="L213" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -5301,10 +7115,18 @@
       <c r="H214" s="3">
         <v>3</v>
       </c>
-      <c r="I214" s="4"/>
-      <c r="J214" s="4"/>
-      <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
+      <c r="I214" s="4">
+        <v>0</v>
+      </c>
+      <c r="J214" s="4">
+        <v>0</v>
+      </c>
+      <c r="K214" s="4">
+        <v>0</v>
+      </c>
+      <c r="L214" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -5328,10 +7150,18 @@
       <c r="H215" s="3">
         <v>0</v>
       </c>
-      <c r="I215" s="4"/>
-      <c r="J215" s="4"/>
-      <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
+      <c r="I215" s="4">
+        <v>0.12621359223300971</v>
+      </c>
+      <c r="J215" s="4">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="K215" s="4">
+        <v>0.33208992964052569</v>
+      </c>
+      <c r="L215" s="4">
+        <v>0.19230769230769229</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -5355,10 +7185,18 @@
       <c r="H216" s="3">
         <v>1</v>
       </c>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
+      <c r="I216" s="4">
+        <v>0</v>
+      </c>
+      <c r="J216" s="4">
+        <v>0</v>
+      </c>
+      <c r="K216" s="4">
+        <v>0</v>
+      </c>
+      <c r="L216" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -5382,10 +7220,18 @@
       <c r="H217" s="3">
         <v>2</v>
       </c>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
+      <c r="I217" s="4">
+        <v>0</v>
+      </c>
+      <c r="J217" s="4">
+        <v>0</v>
+      </c>
+      <c r="K217" s="4">
+        <v>0</v>
+      </c>
+      <c r="L217" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -5409,10 +7255,18 @@
       <c r="H218" s="3">
         <v>3</v>
       </c>
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
+      <c r="I218" s="4">
+        <v>0</v>
+      </c>
+      <c r="J218" s="4">
+        <v>0</v>
+      </c>
+      <c r="K218" s="4">
+        <v>0</v>
+      </c>
+      <c r="L218" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -5436,10 +7290,18 @@
       <c r="H219" s="3">
         <v>0</v>
       </c>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
+      <c r="I219" s="4">
+        <v>5.7596554972412867E-2</v>
+      </c>
+      <c r="J219" s="4">
+        <v>3.6462289744981009E-2</v>
+      </c>
+      <c r="K219" s="4">
+        <v>0.2329789514692748</v>
+      </c>
+      <c r="L219" s="4">
+        <v>0.18743743268497379</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
@@ -5463,10 +7325,18 @@
       <c r="H220" s="3">
         <v>1</v>
       </c>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
+      <c r="I220" s="4">
+        <v>0</v>
+      </c>
+      <c r="J220" s="4">
+        <v>0</v>
+      </c>
+      <c r="K220" s="4">
+        <v>0</v>
+      </c>
+      <c r="L220" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -5490,10 +7360,18 @@
       <c r="H221" s="3">
         <v>2</v>
       </c>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
+      <c r="I221" s="4">
+        <v>5.3842992190711057E-2</v>
+      </c>
+      <c r="J221" s="4">
+        <v>2.3861171366594359E-2</v>
+      </c>
+      <c r="K221" s="4">
+        <v>0.2257076081629994</v>
+      </c>
+      <c r="L221" s="4">
+        <v>0.15261656485325689</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -5517,10 +7395,18 @@
       <c r="H222" s="3">
         <v>3</v>
       </c>
-      <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
+      <c r="I222" s="4">
+        <v>0.1102362204724409</v>
+      </c>
+      <c r="J222" s="4">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="K222" s="4">
+        <v>0.31318396537561172</v>
+      </c>
+      <c r="L222" s="4">
+        <v>0.14186517244662999</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -5544,10 +7430,18 @@
       <c r="H223" s="3">
         <v>0</v>
       </c>
-      <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
+      <c r="I223" s="4">
+        <v>8.7362171331636984E-2</v>
+      </c>
+      <c r="J223" s="4">
+        <v>7.2097378277153554E-2</v>
+      </c>
+      <c r="K223" s="4">
+        <v>0.28236505157660469</v>
+      </c>
+      <c r="L223" s="4">
+        <v>0.25864907949326749</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -5571,10 +7465,18 @@
       <c r="H224" s="3">
         <v>1</v>
       </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
+      <c r="I224" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J224" s="4">
+        <v>0</v>
+      </c>
+      <c r="K224" s="4">
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="L224" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -5598,10 +7500,18 @@
       <c r="H225" s="3">
         <v>2</v>
       </c>
-      <c r="I225" s="4"/>
-      <c r="J225" s="4"/>
-      <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
+      <c r="I225" s="4">
+        <v>9.9688473520249218E-2</v>
+      </c>
+      <c r="J225" s="4">
+        <v>4.9180327868852458E-2</v>
+      </c>
+      <c r="K225" s="4">
+        <v>0.29958418143729121</v>
+      </c>
+      <c r="L225" s="4">
+        <v>0.2162443599716872</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -5625,10 +7535,18 @@
       <c r="H226" s="3">
         <v>3</v>
       </c>
-      <c r="I226" s="4"/>
-      <c r="J226" s="4"/>
-      <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
+      <c r="I226" s="4">
+        <v>0.13821138211382111</v>
+      </c>
+      <c r="J226" s="4">
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="K226" s="4">
+        <v>0.34512171181774193</v>
+      </c>
+      <c r="L226" s="4">
+        <v>0.20535647123189621</v>
+      </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -5639,10 +7557,20 @@
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
-      <c r="I227" s="4"/>
-      <c r="J227" s="4"/>
-      <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
+      <c r="I227" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B227,'Ark3'!$D$2:$D$100,'Ark1'!$A227)</f>
+        <v>1.492537313432836E-2</v>
+      </c>
+      <c r="J227" s="4">
+        <v>1.379310344827586E-2</v>
+      </c>
+      <c r="K227" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B227,'Ark3'!$D$2:$D$100,'Ark1'!$A227)</f>
+        <v>1.492537313432836E-2</v>
+      </c>
+      <c r="L227" s="4">
+        <v>0.1166312725881915</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -5654,10 +7582,20 @@
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
-      <c r="I228" s="4"/>
-      <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
+      <c r="I228" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B228,'Ark3'!$D$2:$D$100,'Ark1'!$A228)</f>
+        <v>1.7441860465116279E-2</v>
+      </c>
+      <c r="J228" s="4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K228" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B228,'Ark3'!$D$2:$D$100,'Ark1'!$A228)</f>
+        <v>1.7441860465116279E-2</v>
+      </c>
+      <c r="L228" s="4">
+        <v>0.17950549357115009</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -5669,10 +7607,20 @@
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
-      <c r="I229" s="4"/>
-      <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
+      <c r="I229" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B229,'Ark3'!$D$2:$D$100,'Ark1'!$A229)</f>
+        <v>3.9772727272727272E-2</v>
+      </c>
+      <c r="J229" s="4">
+        <v>4.2105263157894743E-2</v>
+      </c>
+      <c r="K229" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B229,'Ark3'!$D$2:$D$100,'Ark1'!$A229)</f>
+        <v>3.9772727272727272E-2</v>
+      </c>
+      <c r="L229" s="4">
+        <v>0.20082930556146231</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -5684,10 +7632,20 @@
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="4"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
+      <c r="I230" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B230,'Ark3'!$D$2:$D$100,'Ark1'!$A230)</f>
+        <v>2.6119402985074629E-2</v>
+      </c>
+      <c r="J230" s="4">
+        <v>2.3890784982935159E-2</v>
+      </c>
+      <c r="K230" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B230,'Ark3'!$D$2:$D$100,'Ark1'!$A230)</f>
+        <v>2.6119402985074629E-2</v>
+      </c>
+      <c r="L230" s="4">
+        <v>0.1527089236941781</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -5699,10 +7657,20 @@
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
-      <c r="I231" s="4"/>
-      <c r="J231" s="4"/>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
+      <c r="I231" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B231,'Ark3'!$D$2:$D$100,'Ark1'!$A231)</f>
+        <v>2.469135802469136E-2</v>
+      </c>
+      <c r="J231" s="4">
+        <v>2.209944751381215E-2</v>
+      </c>
+      <c r="K231" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B231,'Ark3'!$D$2:$D$100,'Ark1'!$A231)</f>
+        <v>2.469135802469136E-2</v>
+      </c>
+      <c r="L231" s="4">
+        <v>0.147007013211603</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -5714,10 +7682,20 @@
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
-      <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
-      <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
+      <c r="I232" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B232,'Ark3'!$D$2:$D$100,'Ark1'!$A232)</f>
+        <v>1.470588235294118E-2</v>
+      </c>
+      <c r="J232" s="4">
+        <v>1.393728222996516E-2</v>
+      </c>
+      <c r="K232" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B232,'Ark3'!$D$2:$D$100,'Ark1'!$A232)</f>
+        <v>1.470588235294118E-2</v>
+      </c>
+      <c r="L232" s="4">
+        <v>0.1172306887892733</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -5729,10 +7707,20 @@
       </c>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
-      <c r="I233" s="4"/>
-      <c r="J233" s="4"/>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
+      <c r="I233" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B233,'Ark3'!$D$2:$D$100,'Ark1'!$A233)</f>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="J233" s="4">
+        <v>1.9801980198019799E-2</v>
+      </c>
+      <c r="K233" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B233,'Ark3'!$D$2:$D$100,'Ark1'!$A233)</f>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="L233" s="4">
+        <v>0.1393192799947553</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -5744,10 +7732,20 @@
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
-      <c r="I234" s="4"/>
-      <c r="J234" s="4"/>
-      <c r="K234" s="4"/>
-      <c r="L234" s="4"/>
+      <c r="I234" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B234,'Ark3'!$D$2:$D$100,'Ark1'!$A234)</f>
+        <v>2.9585798816568049E-2</v>
+      </c>
+      <c r="J234" s="4">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="K234" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B234,'Ark3'!$D$2:$D$100,'Ark1'!$A234)</f>
+        <v>2.9585798816568049E-2</v>
+      </c>
+      <c r="L234" s="4">
+        <v>0.14903269373413641</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -5759,10 +7757,20 @@
       </c>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
-      <c r="I235" s="4"/>
-      <c r="J235" s="4"/>
-      <c r="K235" s="4"/>
-      <c r="L235" s="4"/>
+      <c r="I235" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B235,'Ark3'!$D$2:$D$100,'Ark1'!$A235)</f>
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="J235" s="4">
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="K235" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B235,'Ark3'!$D$2:$D$100,'Ark1'!$A235)</f>
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="L235" s="4">
+        <v>0.20116699798712251</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -5786,10 +7794,18 @@
       <c r="H236" s="3">
         <v>0</v>
       </c>
-      <c r="I236" s="4"/>
-      <c r="J236" s="4"/>
-      <c r="K236" s="4"/>
-      <c r="L236" s="4"/>
+      <c r="I236" s="4">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="J236" s="4">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="K236" s="4">
+        <v>0.29354352395090372</v>
+      </c>
+      <c r="L236" s="4">
+        <v>0.14903269373413641</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -5813,10 +7829,18 @@
       <c r="H237" s="3">
         <v>1</v>
       </c>
-      <c r="I237" s="4"/>
-      <c r="J237" s="4"/>
-      <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
+      <c r="I237" s="4">
+        <v>1</v>
+      </c>
+      <c r="J237" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K237" s="4">
+        <v>0</v>
+      </c>
+      <c r="L237" s="4">
+        <v>0.47140452079103168</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -5840,10 +7864,18 @@
       <c r="H238" s="3">
         <v>2</v>
       </c>
-      <c r="I238" s="4"/>
-      <c r="J238" s="4"/>
-      <c r="K238" s="4"/>
-      <c r="L238" s="4"/>
+      <c r="I238" s="4">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="J238" s="4">
+        <v>0</v>
+      </c>
+      <c r="K238" s="4">
+        <v>0.34992710611188271</v>
+      </c>
+      <c r="L238" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -5867,10 +7899,18 @@
       <c r="H239" s="3">
         <v>3</v>
       </c>
-      <c r="I239" s="4"/>
-      <c r="J239" s="4"/>
-      <c r="K239" s="4"/>
-      <c r="L239" s="4"/>
+      <c r="I239" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J239" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K239" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L239" s="4">
+        <v>0.47140452079103168</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -5894,10 +7934,18 @@
       <c r="H240" s="3">
         <v>0</v>
       </c>
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-      <c r="K240" s="4"/>
-      <c r="L240" s="4"/>
+      <c r="I240" s="4">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="J240" s="4">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="K240" s="4">
+        <v>0.2113710821635732</v>
+      </c>
+      <c r="L240" s="4">
+        <v>0.2456701001891583</v>
+      </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -5921,10 +7969,18 @@
       <c r="H241" s="3">
         <v>1</v>
       </c>
-      <c r="I241" s="4"/>
-      <c r="J241" s="4"/>
-      <c r="K241" s="4"/>
-      <c r="L241" s="4"/>
+      <c r="I241" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J241" s="4">
+        <v>0</v>
+      </c>
+      <c r="K241" s="4">
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="L241" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -5948,10 +8004,18 @@
       <c r="H242" s="3">
         <v>2</v>
       </c>
-      <c r="I242" s="4"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
+      <c r="I242" s="4">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="J242" s="4">
+        <v>0</v>
+      </c>
+      <c r="K242" s="4">
+        <v>0.3499271061118826</v>
+      </c>
+      <c r="L242" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -5975,10 +8039,18 @@
       <c r="H243" s="3">
         <v>3</v>
       </c>
-      <c r="I243" s="4"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
+      <c r="I243" s="4">
+        <v>0</v>
+      </c>
+      <c r="J243" s="4">
+        <v>0</v>
+      </c>
+      <c r="K243" s="4">
+        <v>0</v>
+      </c>
+      <c r="L243" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -6002,10 +8074,18 @@
       <c r="H244" s="3">
         <v>0</v>
       </c>
-      <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
-      <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
+      <c r="I244" s="4">
+        <v>2.2795302786092559E-2</v>
+      </c>
+      <c r="J244" s="4">
+        <v>1.6011644832605532E-2</v>
+      </c>
+      <c r="K244" s="4">
+        <v>0.14925038343998631</v>
+      </c>
+      <c r="L244" s="4">
+        <v>0.12552000662189289</v>
+      </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -6029,10 +8109,18 @@
       <c r="H245" s="3">
         <v>1</v>
       </c>
-      <c r="I245" s="4"/>
-      <c r="J245" s="4"/>
-      <c r="K245" s="4"/>
-      <c r="L245" s="4"/>
+      <c r="I245" s="4">
+        <v>0</v>
+      </c>
+      <c r="J245" s="4">
+        <v>0</v>
+      </c>
+      <c r="K245" s="4">
+        <v>0</v>
+      </c>
+      <c r="L245" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -6056,10 +8144,18 @@
       <c r="H246" s="3">
         <v>2</v>
       </c>
-      <c r="I246" s="4"/>
-      <c r="J246" s="4"/>
-      <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
+      <c r="I246" s="4">
+        <v>2.2939068100358419E-2</v>
+      </c>
+      <c r="J246" s="4">
+        <v>1.1764705882352939E-2</v>
+      </c>
+      <c r="K246" s="4">
+        <v>0.14970927578158119</v>
+      </c>
+      <c r="L246" s="4">
+        <v>0.1078253104695492</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -6083,10 +8179,18 @@
       <c r="H247" s="3">
         <v>3</v>
       </c>
-      <c r="I247" s="4"/>
-      <c r="J247" s="4"/>
-      <c r="K247" s="4"/>
-      <c r="L247" s="4"/>
+      <c r="I247" s="4">
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="J247" s="4">
+        <v>0</v>
+      </c>
+      <c r="K247" s="4">
+        <v>0.1866497998172249</v>
+      </c>
+      <c r="L247" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -6110,10 +8214,18 @@
       <c r="H248" s="3">
         <v>0</v>
       </c>
-      <c r="I248" s="4"/>
-      <c r="J248" s="4"/>
-      <c r="K248" s="4"/>
-      <c r="L248" s="4"/>
+      <c r="I248" s="4">
+        <v>6.7821067821067824E-2</v>
+      </c>
+      <c r="J248" s="4">
+        <v>3.4645669291338582E-2</v>
+      </c>
+      <c r="K248" s="4">
+        <v>0.25143860200987028</v>
+      </c>
+      <c r="L248" s="4">
+        <v>0.18288069031664819</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -6137,10 +8249,18 @@
       <c r="H249" s="3">
         <v>1</v>
       </c>
-      <c r="I249" s="4"/>
-      <c r="J249" s="4"/>
-      <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
+      <c r="I249" s="4">
+        <v>0</v>
+      </c>
+      <c r="J249" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K249" s="4">
+        <v>0</v>
+      </c>
+      <c r="L249" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -6164,10 +8284,18 @@
       <c r="H250" s="3">
         <v>2</v>
       </c>
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
-      <c r="K250" s="4"/>
-      <c r="L250" s="4"/>
+      <c r="I250" s="4">
+        <v>5.9139784946236562E-2</v>
+      </c>
+      <c r="J250" s="4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K250" s="4">
+        <v>0.2358861394460248</v>
+      </c>
+      <c r="L250" s="4">
+        <v>0.17950549357115009</v>
+      </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -6191,10 +8319,18 @@
       <c r="H251" s="3">
         <v>3</v>
       </c>
-      <c r="I251" s="4"/>
-      <c r="J251" s="4"/>
-      <c r="K251" s="4"/>
-      <c r="L251" s="4"/>
+      <c r="I251" s="4">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="J251" s="4">
+        <v>3.4482758620689648E-2</v>
+      </c>
+      <c r="K251" s="4">
+        <v>0.23211538298959891</v>
+      </c>
+      <c r="L251" s="4">
+        <v>0.18246560765962699</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
@@ -6205,10 +8341,20 @@
       </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
+      <c r="I252" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B252,'Ark3'!$D$2:$D$100,'Ark1'!$A252)</f>
+        <v>0</v>
+      </c>
+      <c r="J252" s="4">
+        <v>0</v>
+      </c>
+      <c r="K252" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B252,'Ark3'!$D$2:$D$100,'Ark1'!$A252)</f>
+        <v>0</v>
+      </c>
+      <c r="L252" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
@@ -6220,10 +8366,20 @@
       </c>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="4"/>
-      <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
-      <c r="L253" s="4"/>
+      <c r="I253" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B253,'Ark3'!$D$2:$D$100,'Ark1'!$A253)</f>
+        <v>5.7692307692307702E-2</v>
+      </c>
+      <c r="J253" s="4">
+        <v>1.785714285714286E-2</v>
+      </c>
+      <c r="K253" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B253,'Ark3'!$D$2:$D$100,'Ark1'!$A253)</f>
+        <v>5.7692307692307702E-2</v>
+      </c>
+      <c r="L253" s="4">
+        <v>0.13243211584099401</v>
+      </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -6235,10 +8391,20 @@
       </c>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
-      <c r="I254" s="4"/>
-      <c r="J254" s="4"/>
-      <c r="K254" s="4"/>
-      <c r="L254" s="4"/>
+      <c r="I254" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B254,'Ark3'!$D$2:$D$100,'Ark1'!$A254)</f>
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="J254" s="4">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="K254" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B254,'Ark3'!$D$2:$D$100,'Ark1'!$A254)</f>
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="L254" s="4">
+        <v>0.13481684980149111</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
@@ -6250,10 +8416,20 @@
       </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
+      <c r="I255" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B255,'Ark3'!$D$2:$D$100,'Ark1'!$A255)</f>
+        <v>1.492537313432836E-2</v>
+      </c>
+      <c r="J255" s="4">
+        <v>1.428571428571429E-2</v>
+      </c>
+      <c r="K255" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B255,'Ark3'!$D$2:$D$100,'Ark1'!$A255)</f>
+        <v>1.492537313432836E-2</v>
+      </c>
+      <c r="L255" s="4">
+        <v>0.1186660551845439</v>
+      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -6265,10 +8441,20 @@
       </c>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
+      <c r="I256" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B256,'Ark3'!$D$2:$D$100,'Ark1'!$A256)</f>
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="J256" s="4">
+        <v>1.754385964912281E-2</v>
+      </c>
+      <c r="K256" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B256,'Ark3'!$D$2:$D$100,'Ark1'!$A256)</f>
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="L256" s="4">
+        <v>0.13128622409733129</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
@@ -6280,10 +8466,20 @@
       </c>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
-      <c r="I257" s="4"/>
-      <c r="J257" s="4"/>
-      <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
+      <c r="I257" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B257,'Ark3'!$D$2:$D$100,'Ark1'!$A257)</f>
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="J257" s="4">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="K257" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B257,'Ark3'!$D$2:$D$100,'Ark1'!$A257)</f>
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="L257" s="4">
+        <v>0.23211538298959891</v>
+      </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -6295,10 +8491,20 @@
       </c>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
-      <c r="I258" s="4"/>
-      <c r="J258" s="4"/>
-      <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
+      <c r="I258" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B258,'Ark3'!$D$2:$D$100,'Ark1'!$A258)</f>
+        <v>3.1746031746031737E-2</v>
+      </c>
+      <c r="J258" s="4">
+        <v>2.8985507246376808E-2</v>
+      </c>
+      <c r="K258" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B258,'Ark3'!$D$2:$D$100,'Ark1'!$A258)</f>
+        <v>3.1746031746031737E-2</v>
+      </c>
+      <c r="L258" s="4">
+        <v>0.16776575221435111</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -6310,10 +8516,20 @@
       </c>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
-      <c r="I259" s="4"/>
-      <c r="J259" s="4"/>
-      <c r="K259" s="4"/>
-      <c r="L259" s="4"/>
+      <c r="I259" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B259,'Ark3'!$D$2:$D$100,'Ark1'!$A259)</f>
+        <v>0</v>
+      </c>
+      <c r="J259" s="4">
+        <v>0</v>
+      </c>
+      <c r="K259" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B259,'Ark3'!$D$2:$D$100,'Ark1'!$A259)</f>
+        <v>0</v>
+      </c>
+      <c r="L259" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
@@ -6325,10 +8541,20 @@
       </c>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="4"/>
-      <c r="K260" s="4"/>
-      <c r="L260" s="4"/>
+      <c r="I260" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B260,'Ark3'!$D$2:$D$100,'Ark1'!$A260)</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="J260" s="4">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="K260" s="4">
+        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B260,'Ark3'!$D$2:$D$100,'Ark1'!$A260)</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L260" s="4">
+        <v>0.2456701001891583</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
@@ -6352,10 +8578,18 @@
       <c r="H261" s="3">
         <v>0</v>
       </c>
-      <c r="I261" s="4"/>
-      <c r="J261" s="4"/>
-      <c r="K261" s="4"/>
-      <c r="L261" s="4"/>
+      <c r="I261" s="4">
+        <v>0</v>
+      </c>
+      <c r="J261" s="4">
+        <v>2.5974025974025979E-2</v>
+      </c>
+      <c r="K261" s="4">
+        <v>0</v>
+      </c>
+      <c r="L261" s="4">
+        <v>0.15905777550540121</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
@@ -6379,10 +8613,18 @@
       <c r="H262" s="3">
         <v>1</v>
       </c>
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-      <c r="K262" s="4"/>
-      <c r="L262" s="4"/>
+      <c r="I262" s="4">
+        <v>0</v>
+      </c>
+      <c r="J262" s="4">
+        <v>0</v>
+      </c>
+      <c r="K262" s="4">
+        <v>0</v>
+      </c>
+      <c r="L262" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -6406,10 +8648,18 @@
       <c r="H263" s="3">
         <v>2</v>
       </c>
-      <c r="I263" s="4"/>
-      <c r="J263" s="4"/>
-      <c r="K263" s="4"/>
-      <c r="L263" s="4"/>
+      <c r="I263" s="4">
+        <v>0</v>
+      </c>
+      <c r="J263" s="4">
+        <v>0</v>
+      </c>
+      <c r="K263" s="4">
+        <v>0</v>
+      </c>
+      <c r="L263" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -6433,10 +8683,18 @@
       <c r="H264" s="3">
         <v>3</v>
       </c>
-      <c r="I264" s="4"/>
-      <c r="J264" s="4"/>
-      <c r="K264" s="4"/>
-      <c r="L264" s="4"/>
+      <c r="I264" s="4">
+        <v>0</v>
+      </c>
+      <c r="J264" s="4">
+        <v>0</v>
+      </c>
+      <c r="K264" s="4">
+        <v>0</v>
+      </c>
+      <c r="L264" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -6460,10 +8718,18 @@
       <c r="H265" s="3">
         <v>0</v>
       </c>
-      <c r="I265" s="4"/>
-      <c r="J265" s="4"/>
-      <c r="K265" s="4"/>
-      <c r="L265" s="4"/>
+      <c r="I265" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="J265" s="4">
+        <v>0</v>
+      </c>
+      <c r="K265" s="4">
+        <v>0.21794494717703361</v>
+      </c>
+      <c r="L265" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
@@ -6487,10 +8753,18 @@
       <c r="H266" s="3">
         <v>1</v>
       </c>
-      <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
-      <c r="L266" s="4"/>
+      <c r="I266" s="4">
+        <v>0</v>
+      </c>
+      <c r="J266" s="4">
+        <v>0</v>
+      </c>
+      <c r="K266" s="4">
+        <v>0</v>
+      </c>
+      <c r="L266" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -6514,10 +8788,18 @@
       <c r="H267" s="3">
         <v>2</v>
       </c>
-      <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
-      <c r="K267" s="4"/>
-      <c r="L267" s="4"/>
+      <c r="I267" s="4">
+        <v>0</v>
+      </c>
+      <c r="J267" s="4">
+        <v>0</v>
+      </c>
+      <c r="K267" s="4">
+        <v>0</v>
+      </c>
+      <c r="L267" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -6541,10 +8823,18 @@
       <c r="H268" s="3">
         <v>3</v>
       </c>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
+      <c r="I268" s="4">
+        <v>0</v>
+      </c>
+      <c r="J268" s="4">
+        <v>0</v>
+      </c>
+      <c r="K268" s="4">
+        <v>0</v>
+      </c>
+      <c r="L268" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -6568,10 +8858,18 @@
       <c r="H269" s="3">
         <v>0</v>
       </c>
-      <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
-      <c r="K269" s="4"/>
-      <c r="L269" s="4"/>
+      <c r="I269" s="4">
+        <v>2.0878329733621311E-2</v>
+      </c>
+      <c r="J269" s="4">
+        <v>1.4059753954305801E-2</v>
+      </c>
+      <c r="K269" s="4">
+        <v>0.1429770089250558</v>
+      </c>
+      <c r="L269" s="4">
+        <v>0.11773732319468699</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
@@ -6595,10 +8893,18 @@
       <c r="H270" s="3">
         <v>1</v>
       </c>
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
+      <c r="I270" s="4">
+        <v>0</v>
+      </c>
+      <c r="J270" s="4">
+        <v>0</v>
+      </c>
+      <c r="K270" s="4">
+        <v>0</v>
+      </c>
+      <c r="L270" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -6622,10 +8928,18 @@
       <c r="H271" s="3">
         <v>2</v>
       </c>
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
+      <c r="I271" s="4">
+        <v>1.445783132530121E-2</v>
+      </c>
+      <c r="J271" s="4">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="K271" s="4">
+        <v>0.1193683477253093</v>
+      </c>
+      <c r="L271" s="4">
+        <v>0.13481684980149111</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -6649,10 +8963,18 @@
       <c r="H272" s="3">
         <v>3</v>
       </c>
-      <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
+      <c r="I272" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J272" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K272" s="4">
+        <v>0.24206145913796359</v>
+      </c>
+      <c r="L272" s="4">
+        <v>0.24206145913796359</v>
+      </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
@@ -6676,10 +8998,18 @@
       <c r="H273" s="3">
         <v>0</v>
       </c>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
+      <c r="I273" s="4">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="J273" s="4">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="K273" s="4">
+        <v>0.19851201022177309</v>
+      </c>
+      <c r="L273" s="4">
+        <v>0.1632380176412738</v>
+      </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
@@ -6703,10 +9033,18 @@
       <c r="H274" s="3">
         <v>1</v>
       </c>
-      <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
-      <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
+      <c r="I274" s="4">
+        <v>0</v>
+      </c>
+      <c r="J274" s="4">
+        <v>0</v>
+      </c>
+      <c r="K274" s="4">
+        <v>0</v>
+      </c>
+      <c r="L274" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
@@ -6730,10 +9068,18 @@
       <c r="H275" s="3">
         <v>2</v>
       </c>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
+      <c r="I275" s="4">
+        <v>1.9230769230769228E-2</v>
+      </c>
+      <c r="J275" s="4">
+        <v>0</v>
+      </c>
+      <c r="K275" s="4">
+        <v>0.13733516208736249</v>
+      </c>
+      <c r="L275" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -6757,10 +9103,18 @@
       <c r="H276" s="3">
         <v>3</v>
       </c>
-      <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
+      <c r="I276" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J276" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K276" s="4">
+        <v>0.22906142364542559</v>
+      </c>
+      <c r="L276" s="4">
+        <v>0.45175395145262559</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G277" s="5"/>
@@ -17573,4 +19927,2017 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E61D34-0074-4A51-9CDB-03227826D4A2}">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.4946466809421844E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8.6246605452446792E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.28278221208665899</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.45035145454859471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>61</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.141206675224647</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.34823461932531641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.16787264833574531</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.37375315687829108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.34538375877913308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.623318385650224E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.26537084530069038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>65</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.1057692307692308</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.30754203060999002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5.6034482758620691E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.22998830296472589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.492537313432836E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.1212543045468054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10470</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>68</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5.7840616966580976E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7.5832752336621359E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.28802153432032301</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.4528411753452749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.1145833333333333</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.31851843440459687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>62</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.15083333333333329</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.35788634912341782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.13631840796019901</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.3431263609975132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>64</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8.1769436997319034E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.27401313138326139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>65</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.25753937681885641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7.5409836065573776E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.26405149628460178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.7441860465116279E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.13091081685113609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>17486</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5.7692307692307702E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.23316068563427189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.7058823529411761E-3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6.8437833281171687E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.27013752455795681</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.44403067730017942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>61</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.12101910828025481</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.32614948062400279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.1795968234575443</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.38385127909322381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>63</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.14665653495440731</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.35376319156969122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5.1567239635995958E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.22115166613055329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>65</v>
+      </c>
+      <c r="E31" s="6">
+        <v>6.3732928679817905E-2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.2442765696535612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>66</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5.3908355795148251E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.22583676620650581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3.9772727272727272E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.1954248127490891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
+        <v>23929</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.1428261375083551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5.1451672179345827E-3</v>
+      </c>
+      <c r="F36" s="6">
+        <v>7.1545052045784943E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>60</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.25352112676056338</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.43502662567550709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>61</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.13025210084033609</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.33658058628954668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>62</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.16542473919523101</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.3715634466109668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>63</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.1275415896487985</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.33357867521569179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>64</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5.5732484076433123E-2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.22940439031348819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>65</v>
+      </c>
+      <c r="E42" s="6">
+        <v>6.5430752453653221E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.24728438908876149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>66</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4.145077720207254E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.199330404784159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>67</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2.6119402985074629E-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.1594903751728545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
+        <v>30584</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>68</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1.492537313432836E-2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.1212543045468053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>58</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>59</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4.9439683586025053E-3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>7.0139329448403204E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>60</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.2524137931034483</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.43439736435040432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>61</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.1337209302325581</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.34035223379654422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>62</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.14798850574712641</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.35508859164138068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>63</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.14734299516908211</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.35444750943360559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>64</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4.7656249999999997E-2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.2130378647938847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>65</v>
+      </c>
+      <c r="E53" s="6">
+        <v>7.309322033898305E-2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.26028945710393248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>66</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3.5256410256410263E-2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.184427210010459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>67</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2.469135802469136E-2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.15518277888859919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6">
+        <v>33554</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>68</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.14583052027172541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>58</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>59</v>
+      </c>
+      <c r="E58" s="6">
+        <v>5.1132213294375461E-3</v>
+      </c>
+      <c r="F58" s="6">
+        <v>7.1323742870615894E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>60</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.25464895635673618</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.43566370675460359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>61</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.12859560067681891</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.33475180681123601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>62</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.1822759315206445</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.38607177611025367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>63</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.12625</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.3321309041628015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>64</v>
+      </c>
+      <c r="E63" s="6">
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.23108393799841301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>65</v>
+      </c>
+      <c r="E64" s="6">
+        <v>8.0091533180778038E-2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.27143485312967902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>66</v>
+      </c>
+      <c r="E65" s="6">
+        <v>5.1418439716312048E-2</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.22084968592563589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6">
+        <v>67</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1.470588235294118E-2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.1203728348804772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="6">
+        <v>30597</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>68</v>
+      </c>
+      <c r="E67" s="6">
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.23693295322966479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6">
+        <v>58</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6">
+        <v>59</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4.7938638542665392E-3</v>
+      </c>
+      <c r="F69" s="6">
+        <v>6.9071576814296751E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6">
+        <v>60</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.25149700598802388</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.43387355527513288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6">
+        <v>61</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.1249323958896701</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.33064224223008287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>62</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.1622971285892634</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.36872316260433591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6">
+        <v>63</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.15177195685670261</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.35879970731396899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" s="6">
+        <v>64</v>
+      </c>
+      <c r="E74" s="6">
+        <v>6.749740394600208E-2</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.25088145488766661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6">
+        <v>65</v>
+      </c>
+      <c r="E75" s="6">
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.27408751693966071</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" s="6">
+        <v>66</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4.960835509138381E-2</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.21713444267667659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" s="6">
+        <v>67</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.12698306053139069</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="6">
+        <v>23570</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6">
+        <v>68</v>
+      </c>
+      <c r="E78" s="6">
+        <v>3.1746031746031737E-2</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0.1753231907490041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C79" s="6">
+        <v>3</v>
+      </c>
+      <c r="D79" s="6">
+        <v>58</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C80" s="6">
+        <v>3</v>
+      </c>
+      <c r="D80" s="6">
+        <v>59</v>
+      </c>
+      <c r="E80" s="6">
+        <v>5.1813471502590684E-3</v>
+      </c>
+      <c r="F80" s="6">
+        <v>7.1794852127207362E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C81" s="6">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6">
+        <v>60</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0.2935528120713306</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0.45538945815240889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C82" s="6">
+        <v>3</v>
+      </c>
+      <c r="D82" s="6">
+        <v>61</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.31948553318915668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C83" s="6">
+        <v>3</v>
+      </c>
+      <c r="D83" s="6">
+        <v>62</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0.1400512382578992</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.34704018343749238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="6">
+        <v>63</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.15076923076923079</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0.35782379717185547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C85" s="6">
+        <v>3</v>
+      </c>
+      <c r="D85" s="6">
+        <v>64</v>
+      </c>
+      <c r="E85" s="6">
+        <v>6.2841530054644809E-2</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.24267771252225859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C86" s="6">
+        <v>3</v>
+      </c>
+      <c r="D86" s="6">
+        <v>65</v>
+      </c>
+      <c r="E86" s="6">
+        <v>7.9741379310344834E-2</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.27089239881552329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C87" s="6">
+        <v>3</v>
+      </c>
+      <c r="D87" s="6">
+        <v>66</v>
+      </c>
+      <c r="E87" s="6">
+        <v>6.8728522336769765E-2</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.25299192191485859</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C88" s="6">
+        <v>3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>67</v>
+      </c>
+      <c r="E88" s="6">
+        <v>2.9585798816568049E-2</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.1694416693878858</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="6">
+        <v>17411</v>
+      </c>
+      <c r="C89" s="6">
+        <v>3</v>
+      </c>
+      <c r="D89" s="6">
+        <v>68</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C90" s="6">
+        <v>4</v>
+      </c>
+      <c r="D90" s="6">
+        <v>58</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C91" s="6">
+        <v>4</v>
+      </c>
+      <c r="D91" s="6">
+        <v>59</v>
+      </c>
+      <c r="E91" s="6">
+        <v>4.5819014891179842E-3</v>
+      </c>
+      <c r="F91" s="6">
+        <v>6.7534492430623941E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C92" s="6">
+        <v>4</v>
+      </c>
+      <c r="D92" s="6">
+        <v>60</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.265281173594132</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.44148281113838622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C93" s="6">
+        <v>4</v>
+      </c>
+      <c r="D93" s="6">
+        <v>61</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.12972972972972971</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.3360058436307039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C94" s="6">
+        <v>4</v>
+      </c>
+      <c r="D94" s="6">
+        <v>62</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.1457364341085271</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.35284178590674048</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C95" s="6">
+        <v>4</v>
+      </c>
+      <c r="D95" s="6">
+        <v>63</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.13774597495527729</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.34463316923781062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C96" s="6">
+        <v>4</v>
+      </c>
+      <c r="D96" s="6">
+        <v>64</v>
+      </c>
+      <c r="E96" s="6">
+        <v>7.6732673267326731E-2</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.26616680882592492</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C97" s="6">
+        <v>4</v>
+      </c>
+      <c r="D97" s="6">
+        <v>65</v>
+      </c>
+      <c r="E97" s="6">
+        <v>9.602649006622517E-2</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.29462756706015542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C98" s="6">
+        <v>4</v>
+      </c>
+      <c r="D98" s="6">
+        <v>66</v>
+      </c>
+      <c r="E98" s="6">
+        <v>8.8785046728971959E-2</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.28443322978566737</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C99" s="6">
+        <v>4</v>
+      </c>
+      <c r="D99" s="6">
+        <v>67</v>
+      </c>
+      <c r="E99" s="6">
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.20608041101101571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C100" s="6">
+        <v>4</v>
+      </c>
+      <c r="D100" s="6">
+        <v>68</v>
+      </c>
+      <c r="E100" s="6">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.25339549063274253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Main/SASdata/couple_moments.xlsx
+++ b/Main/SASdata/couple_moments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5215C450-F13E-41AD-A170-591170F1788E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6E309-0B20-410D-8BF1-0FC2145EEE69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:L1585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,18 +542,16 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B2,'Ark3'!$D$2:$D$100,'Ark1'!$A2)</f>
-        <v>0</v>
+        <v>9.433962264150943E-3</v>
       </c>
       <c r="J2" s="4">
-        <v>6.030150753768844E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="K2" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B2,'Ark3'!$D$2:$D$100,'Ark1'!$A2)</f>
-        <v>0</v>
+        <v>9.6669346848675466E-2</v>
       </c>
       <c r="L2" s="4">
-        <v>7.7419558482696479E-2</v>
+        <v>4.9147174649356987E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -561,24 +559,21 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <f>B2+1</f>
         <v>-3</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B3,'Ark3'!$D$2:$D$100,'Ark1'!$A3)</f>
-        <v>0</v>
+        <v>9.8452883263009851E-3</v>
       </c>
       <c r="J3" s="4">
-        <v>4.9170251997541483E-3</v>
+        <v>1.440922190201729E-3</v>
       </c>
       <c r="K3" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B3,'Ark3'!$D$2:$D$100,'Ark1'!$A3)</f>
-        <v>0</v>
+        <v>9.8733776510741167E-2</v>
       </c>
       <c r="L3" s="4">
-        <v>6.9948896080918477E-2</v>
+        <v>3.7932122712069687E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -586,24 +581,21 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B10" si="0">B3+1</f>
         <v>-2</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B4,'Ark3'!$D$2:$D$100,'Ark1'!$A4)</f>
-        <v>0</v>
+        <v>6.1162079510703356E-3</v>
       </c>
       <c r="J4" s="4">
-        <v>3.0905077262693161E-3</v>
+        <v>1.033057851239669E-3</v>
       </c>
       <c r="K4" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B4,'Ark3'!$D$2:$D$100,'Ark1'!$A4)</f>
-        <v>0</v>
+        <v>7.7966659229247476E-2</v>
       </c>
       <c r="L4" s="4">
-        <v>5.5506364394213262E-2</v>
+        <v>3.212461116831862E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -611,24 +603,21 @@
         <v>58</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B5,'Ark3'!$D$2:$D$100,'Ark1'!$A5)</f>
-        <v>0</v>
+        <v>7.9808459696727851E-3</v>
       </c>
       <c r="J5" s="4">
-        <v>5.1777701070072476E-3</v>
+        <v>2.4019215372297841E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B5,'Ark3'!$D$2:$D$100,'Ark1'!$A5)</f>
-        <v>0</v>
+        <v>8.8978379774421287E-2</v>
       </c>
       <c r="L5" s="4">
-        <v>7.1770194396603329E-2</v>
+        <v>4.8950508783451627E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -636,24 +625,21 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B6,'Ark3'!$D$2:$D$100,'Ark1'!$A6)</f>
-        <v>0</v>
+        <v>6.5837600585223113E-3</v>
       </c>
       <c r="J6" s="4">
-        <v>6.4298836497244339E-3</v>
+        <v>5.1169590643274851E-3</v>
       </c>
       <c r="K6" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B6,'Ark3'!$D$2:$D$100,'Ark1'!$A6)</f>
-        <v>0</v>
+        <v>8.0872827092999033E-2</v>
       </c>
       <c r="L6" s="4">
-        <v>7.9928344446606917E-2</v>
+        <v>7.1349672699049432E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -661,84 +647,88 @@
         <v>58</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B7,'Ark3'!$D$2:$D$100,'Ark1'!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>5.6726094003241492E-3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.8820179007323028E-3</v>
+      </c>
       <c r="K7" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B7,'Ark3'!$D$2:$D$100,'Ark1'!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4"/>
+        <v>7.5102802230779003E-2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6.9700672894522558E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B8,'Ark3'!$D$2:$D$100,'Ark1'!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>2.0746887966804979E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6.2827225130890046E-3</v>
+      </c>
       <c r="K8" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B8,'Ark3'!$D$2:$D$100,'Ark1'!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4"/>
+        <v>4.5501477592243378E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>7.9014238659323499E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>58</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B9,'Ark3'!$D$2:$D$100,'Ark1'!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>7.1839080459770114E-3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.928257686676428E-3</v>
+      </c>
       <c r="K9" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B9,'Ark3'!$D$2:$D$100,'Ark1'!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
+        <v>8.4452942584399962E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5.4034091031466863E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B10,'Ark3'!$D$2:$D$100,'Ark1'!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>9.852216748768473E-3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.5316455696202532E-3</v>
+      </c>
       <c r="K10" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B10,'Ark3'!$D$2:$D$100,'Ark1'!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4"/>
+        <v>9.8768165791938034E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5.0251729724757492E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1310,18 +1300,16 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B27,'Ark3'!$D$2:$D$100,'Ark1'!$A27)</f>
-        <v>7.4946466809421844E-3</v>
+        <v>2.3752969121140139E-3</v>
       </c>
       <c r="J27" s="4">
-        <v>1.0080645161290321E-2</v>
+        <v>1.470588235294118E-2</v>
       </c>
       <c r="K27" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B27,'Ark3'!$D$2:$D$100,'Ark1'!$A27)</f>
-        <v>7.4946466809421844E-3</v>
+        <v>4.8679101025936339E-2</v>
       </c>
       <c r="L27" s="4">
-        <v>9.9895073724495909E-2</v>
+        <v>0.1203728348804772</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1329,24 +1317,21 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <f>B27+1</f>
         <v>-3</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B28,'Ark3'!$D$2:$D$100,'Ark1'!$A28)</f>
-        <v>5.7840616966580976E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="J28" s="4">
-        <v>1.1104256631708821E-2</v>
+        <v>1.300578034682081E-2</v>
       </c>
       <c r="K28" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B28,'Ark3'!$D$2:$D$100,'Ark1'!$A28)</f>
-        <v>5.7840616966580976E-3</v>
+        <v>9.1924373223655903E-2</v>
       </c>
       <c r="L28" s="4">
-        <v>0.1047900382496636</v>
+        <v>0.1132988527055374</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1354,24 +1339,21 @@
         <v>59</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B35" si="1">B28+1</f>
         <v>-2</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B29,'Ark3'!$D$2:$D$100,'Ark1'!$A29)</f>
-        <v>4.7058823529411761E-3</v>
+        <v>7.2239422084623322E-3</v>
       </c>
       <c r="J29" s="4">
-        <v>9.7951914514692786E-3</v>
+        <v>9.4043887147335428E-3</v>
       </c>
       <c r="K29" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B29,'Ark3'!$D$2:$D$100,'Ark1'!$A29)</f>
-        <v>4.7058823529411761E-3</v>
+        <v>8.4686225960489761E-2</v>
       </c>
       <c r="L29" s="4">
-        <v>9.8484748443088091E-2</v>
+        <v>9.6519149331289356E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1379,24 +1361,21 @@
         <v>59</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B30,'Ark3'!$D$2:$D$100,'Ark1'!$A30)</f>
-        <v>5.1451672179345827E-3</v>
+        <v>1.048387096774194E-2</v>
       </c>
       <c r="J30" s="4">
-        <v>1.214855952794169E-2</v>
+        <v>1.4574898785425099E-2</v>
       </c>
       <c r="K30" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B30,'Ark3'!$D$2:$D$100,'Ark1'!$A30)</f>
-        <v>5.1451672179345827E-3</v>
+        <v>0.10185263578952521</v>
       </c>
       <c r="L30" s="4">
-        <v>0.1095489480978149</v>
+        <v>0.1198435276133831</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1404,24 +1383,21 @@
         <v>59</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B31,'Ark3'!$D$2:$D$100,'Ark1'!$A31)</f>
-        <v>4.9439683586025053E-3</v>
+        <v>1.258327165062916E-2</v>
       </c>
       <c r="J31" s="4">
-        <v>9.535527529990772E-3</v>
+        <v>6.6568047337278108E-3</v>
       </c>
       <c r="K31" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B31,'Ark3'!$D$2:$D$100,'Ark1'!$A31)</f>
-        <v>4.9439683586025053E-3</v>
+        <v>0.1114671831760166</v>
       </c>
       <c r="L31" s="4">
-        <v>9.7183338308146003E-2</v>
+        <v>8.1317228706251604E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1429,24 +1405,21 @@
         <v>59</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B32,'Ark3'!$D$2:$D$100,'Ark1'!$A32)</f>
-        <v>5.1132213294375461E-3</v>
+        <v>8.1833060556464818E-3</v>
       </c>
       <c r="J32" s="4">
-        <v>1.1216263582194181E-2</v>
+        <v>1.063829787234043E-2</v>
       </c>
       <c r="K32" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B32,'Ark3'!$D$2:$D$100,'Ark1'!$A32)</f>
-        <v>5.1132213294375461E-3</v>
+        <v>9.0090729587711207E-2</v>
       </c>
       <c r="L32" s="4">
-        <v>0.10531124827599821</v>
+        <v>0.1025920293722655</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1454,63 +1427,66 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B33,'Ark3'!$D$2:$D$100,'Ark1'!$A33)</f>
-        <v>4.7938638542665392E-3</v>
-      </c>
-      <c r="J33" s="4"/>
+        <v>9.4637223974763408E-3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.0559662090813091E-2</v>
+      </c>
       <c r="K33" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B33,'Ark3'!$D$2:$D$100,'Ark1'!$A33)</f>
-        <v>4.7938638542665392E-3</v>
-      </c>
-      <c r="L33" s="4"/>
+        <v>9.6820247654402558E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.10221621998166899</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>59</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B34,'Ark3'!$D$2:$D$100,'Ark1'!$A34)</f>
-        <v>5.1813471502590684E-3</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>1.4513788098693759E-2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.331360946745562E-2</v>
+      </c>
       <c r="K34" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B34,'Ark3'!$D$2:$D$100,'Ark1'!$A34)</f>
-        <v>5.1813471502590684E-3</v>
-      </c>
-      <c r="L34" s="4"/>
+        <v>0.1195957275730198</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.1146139488474404</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>59</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B35,'Ark3'!$D$2:$D$100,'Ark1'!$A35)</f>
-        <v>4.5819014891179842E-3</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>1.7632241813602019E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1.023017902813299E-2</v>
+      </c>
       <c r="K35" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B35,'Ark3'!$D$2:$D$100,'Ark1'!$A35)</f>
-        <v>4.5819014891179842E-3</v>
-      </c>
-      <c r="L35" s="4"/>
+        <v>0.13161058415731119</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.1006256551043785</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2082,18 +2058,16 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B52,'Ark3'!$D$2:$D$100,'Ark1'!$A52)</f>
-        <v>0.28278221208665899</v>
+        <v>0.15196078431372551</v>
       </c>
       <c r="J52" s="4">
-        <v>0.27438370846730981</v>
+        <v>0.42245989304812842</v>
       </c>
       <c r="K52" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B52,'Ark3'!$D$2:$D$100,'Ark1'!$A52)</f>
-        <v>0.28278221208665899</v>
+        <v>0.35898287472313062</v>
       </c>
       <c r="L52" s="4">
-        <v>0.44620319249758411</v>
+        <v>0.493950940695422</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2101,24 +2075,21 @@
         <v>60</v>
       </c>
       <c r="B53">
-        <f>B52+1</f>
         <v>-3</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B53,'Ark3'!$D$2:$D$100,'Ark1'!$A53)</f>
-        <v>0.28802153432032301</v>
+        <v>0.18352601156069359</v>
       </c>
       <c r="J53" s="4">
-        <v>0.27809890815671162</v>
+        <v>0.38689547581903277</v>
       </c>
       <c r="K53" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B53,'Ark3'!$D$2:$D$100,'Ark1'!$A53)</f>
-        <v>0.28802153432032301</v>
+        <v>0.38709716434161312</v>
       </c>
       <c r="L53" s="4">
-        <v>0.44806239011855981</v>
+        <v>0.48703938917688883</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2126,24 +2097,21 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B60" si="2">B53+1</f>
         <v>-2</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B54,'Ark3'!$D$2:$D$100,'Ark1'!$A54)</f>
-        <v>0.27013752455795681</v>
+        <v>0.1591148577449947</v>
       </c>
       <c r="J54" s="4">
-        <v>0.26956924502084301</v>
+        <v>0.38290788013318527</v>
       </c>
       <c r="K54" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B54,'Ark3'!$D$2:$D$100,'Ark1'!$A54)</f>
-        <v>0.27013752455795681</v>
+        <v>0.36578315952184681</v>
       </c>
       <c r="L54" s="4">
-        <v>0.44373603319962163</v>
+        <v>0.48609611751699439</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,24 +2119,21 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B55,'Ark3'!$D$2:$D$100,'Ark1'!$A55)</f>
-        <v>0.25352112676056338</v>
+        <v>0.18031430934656739</v>
       </c>
       <c r="J55" s="4">
-        <v>0.25528105979233801</v>
+        <v>0.31868131868131871</v>
       </c>
       <c r="K55" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B55,'Ark3'!$D$2:$D$100,'Ark1'!$A55)</f>
-        <v>0.25352112676056338</v>
+        <v>0.38444903328196539</v>
       </c>
       <c r="L55" s="4">
-        <v>0.43601908249942312</v>
+        <v>0.46596516587064152</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2176,24 +2141,21 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B56,'Ark3'!$D$2:$D$100,'Ark1'!$A56)</f>
-        <v>0.2524137931034483</v>
+        <v>0.18069498069498069</v>
       </c>
       <c r="J56" s="4">
-        <v>0.24824056301983369</v>
+        <v>0.31404320987654322</v>
       </c>
       <c r="K56" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B56,'Ark3'!$D$2:$D$100,'Ark1'!$A56)</f>
-        <v>0.2524137931034483</v>
+        <v>0.38476525914721199</v>
       </c>
       <c r="L56" s="4">
-        <v>0.43199211322827369</v>
+        <v>0.46413367924228532</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2201,24 +2163,21 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B57,'Ark3'!$D$2:$D$100,'Ark1'!$A57)</f>
-        <v>0.25464895635673618</v>
+        <v>0.17200674536256319</v>
       </c>
       <c r="J57" s="4">
-        <v>0.25271149674620391</v>
+        <v>0.33276595744680848</v>
       </c>
       <c r="K57" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B57,'Ark3'!$D$2:$D$100,'Ark1'!$A57)</f>
-        <v>0.25464895635673618</v>
+        <v>0.37738630726662781</v>
       </c>
       <c r="L57" s="4">
-        <v>0.4345669064235072</v>
+        <v>0.47120353883573213</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2226,24 +2185,21 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B58,'Ark3'!$D$2:$D$100,'Ark1'!$A58)</f>
-        <v>0.25149700598802388</v>
+        <v>0.138412017167382</v>
       </c>
       <c r="J58" s="4">
-        <v>0.24623352165725049</v>
+        <v>0.37041156840934369</v>
       </c>
       <c r="K58" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B58,'Ark3'!$D$2:$D$100,'Ark1'!$A58)</f>
-        <v>0.25149700598802388</v>
+        <v>0.34533191377432571</v>
       </c>
       <c r="L58" s="4">
-        <v>0.4308161724790735</v>
+        <v>0.48291493909163119</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2251,42 +2207,44 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B59,'Ark3'!$D$2:$D$100,'Ark1'!$A59)</f>
-        <v>0.2935528120713306</v>
-      </c>
-      <c r="J59" s="4"/>
+        <v>0.19526627218934911</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0.40162601626016259</v>
+      </c>
       <c r="K59" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B59,'Ark3'!$D$2:$D$100,'Ark1'!$A59)</f>
-        <v>0.2935528120713306</v>
-      </c>
-      <c r="L59" s="4"/>
+        <v>0.39640554377382792</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.49022704874695988</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B60,'Ark3'!$D$2:$D$100,'Ark1'!$A60)</f>
-        <v>0.265281173594132</v>
-      </c>
-      <c r="J60" s="4"/>
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0.34745762711864409</v>
+      </c>
       <c r="K60" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B60,'Ark3'!$D$2:$D$100,'Ark1'!$A60)</f>
-        <v>0.265281173594132</v>
-      </c>
-      <c r="L60" s="4"/>
+        <v>0.38569460791993487</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.47616260297898799</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -2858,18 +2816,16 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B77,'Ark3'!$D$2:$D$100,'Ark1'!$A77)</f>
-        <v>0.141206675224647</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="J77" s="4">
-        <v>0.14184397163120571</v>
+        <v>0.1645161290322581</v>
       </c>
       <c r="K77" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B77,'Ark3'!$D$2:$D$100,'Ark1'!$A77)</f>
-        <v>0.141206675224647</v>
+        <v>0.32780364090222469</v>
       </c>
       <c r="L77" s="4">
-        <v>0.34889003904252042</v>
+        <v>0.37074327009468361</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,24 +2833,21 @@
         <v>61</v>
       </c>
       <c r="B78">
-        <f>B77+1</f>
         <v>-3</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B78,'Ark3'!$D$2:$D$100,'Ark1'!$A78)</f>
-        <v>0.1145833333333333</v>
+        <v>9.7451274362818585E-2</v>
       </c>
       <c r="J78" s="4">
-        <v>0.1181046676096181</v>
+        <v>0.1386321626617375</v>
       </c>
       <c r="K78" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B78,'Ark3'!$D$2:$D$100,'Ark1'!$A78)</f>
-        <v>0.1145833333333333</v>
+        <v>0.29657127893287522</v>
       </c>
       <c r="L78" s="4">
-        <v>0.32273201746718549</v>
+        <v>0.34556227533900041</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -2902,24 +2855,21 @@
         <v>61</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B85" si="3">B78+1</f>
         <v>-2</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B79,'Ark3'!$D$2:$D$100,'Ark1'!$A79)</f>
-        <v>0.12101910828025481</v>
+        <v>9.3886462882096067E-2</v>
       </c>
       <c r="J79" s="4">
-        <v>0.1188463451019393</v>
+        <v>0.14800995024875621</v>
       </c>
       <c r="K79" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B79,'Ark3'!$D$2:$D$100,'Ark1'!$A79)</f>
-        <v>0.12101910828025481</v>
+        <v>0.29167069611050211</v>
       </c>
       <c r="L79" s="4">
-        <v>0.3236076194372593</v>
+        <v>0.35510984902719461</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -2927,24 +2877,21 @@
         <v>61</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B80,'Ark3'!$D$2:$D$100,'Ark1'!$A80)</f>
-        <v>0.13025210084033609</v>
+        <v>9.2376681614349782E-2</v>
       </c>
       <c r="J80" s="4">
-        <v>0.12732305258995649</v>
+        <v>0.16061185468451239</v>
       </c>
       <c r="K80" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B80,'Ark3'!$D$2:$D$100,'Ark1'!$A80)</f>
-        <v>0.13025210084033609</v>
+        <v>0.28955695520617503</v>
       </c>
       <c r="L80" s="4">
-        <v>0.33333450596830161</v>
+        <v>0.36717255727969839</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,24 +2899,21 @@
         <v>61</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B81,'Ark3'!$D$2:$D$100,'Ark1'!$A81)</f>
-        <v>0.1337209302325581</v>
+        <v>0.10043668122270739</v>
       </c>
       <c r="J81" s="4">
-        <v>0.12884545783568591</v>
+        <v>0.16404886561954621</v>
       </c>
       <c r="K81" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B81,'Ark3'!$D$2:$D$100,'Ark1'!$A81)</f>
-        <v>0.1337209302325581</v>
+        <v>0.30058136051271661</v>
       </c>
       <c r="L81" s="4">
-        <v>0.33502881343370811</v>
+        <v>0.37031990941412568</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -2977,24 +2921,21 @@
         <v>61</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B82,'Ark3'!$D$2:$D$100,'Ark1'!$A82)</f>
-        <v>0.12859560067681891</v>
+        <v>0.10589318600368321</v>
       </c>
       <c r="J82" s="4">
-        <v>0.12785571142284571</v>
+        <v>0.15922330097087381</v>
       </c>
       <c r="K82" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B82,'Ark3'!$D$2:$D$100,'Ark1'!$A82)</f>
-        <v>0.12859560067681891</v>
+        <v>0.30770085986501988</v>
       </c>
       <c r="L82" s="4">
-        <v>0.333929077019962</v>
+        <v>0.36588419123926669</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3002,24 +2943,21 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B83,'Ark3'!$D$2:$D$100,'Ark1'!$A83)</f>
-        <v>0.1249323958896701</v>
+        <v>9.8901098901098897E-2</v>
       </c>
       <c r="J83" s="4">
-        <v>0.1285569105691057</v>
+        <v>0.16284987277353691</v>
       </c>
       <c r="K83" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B83,'Ark3'!$D$2:$D$100,'Ark1'!$A83)</f>
-        <v>0.1249323958896701</v>
+        <v>0.29852918037815662</v>
       </c>
       <c r="L83" s="4">
-        <v>0.33470887546348788</v>
+        <v>0.36922864421815887</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3027,24 +2965,21 @@
         <v>61</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B84,'Ark3'!$D$2:$D$100,'Ark1'!$A84)</f>
-        <v>0.1153846153846154</v>
+        <v>7.2196620583717355E-2</v>
       </c>
       <c r="J84" s="4">
-        <v>0.11400422237860661</v>
+        <v>0.16159695817490491</v>
       </c>
       <c r="K84" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B84,'Ark3'!$D$2:$D$100,'Ark1'!$A84)</f>
-        <v>0.1153846153846154</v>
+        <v>0.25881319239947592</v>
       </c>
       <c r="L84" s="4">
-        <v>0.31781639299830938</v>
+        <v>0.36808067224933583</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3052,21 +2987,22 @@
         <v>61</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B85,'Ark3'!$D$2:$D$100,'Ark1'!$A85)</f>
-        <v>0.12972972972972971</v>
-      </c>
-      <c r="J85" s="4"/>
+        <v>0.1045576407506702</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0.17346938775510201</v>
+      </c>
       <c r="K85" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B85,'Ark3'!$D$2:$D$100,'Ark1'!$A85)</f>
-        <v>0.12972972972972971</v>
-      </c>
-      <c r="L85" s="4"/>
+        <v>0.30598258203911549</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.37865255745468313</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -3638,18 +3574,16 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B102,'Ark3'!$D$2:$D$100,'Ark1'!$A102)</f>
-        <v>0.16787264833574531</v>
+        <v>0.1796875</v>
       </c>
       <c r="J102" s="4">
-        <v>0.1635388739946381</v>
+        <v>0.13559322033898311</v>
       </c>
       <c r="K102" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B102,'Ark3'!$D$2:$D$100,'Ark1'!$A102)</f>
-        <v>0.16787264833574531</v>
+        <v>0.38392694922830051</v>
       </c>
       <c r="L102" s="4">
-        <v>0.36985660827840289</v>
+        <v>0.34235609960549418</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -3657,24 +3591,21 @@
         <v>62</v>
       </c>
       <c r="B103">
-        <f>B102+1</f>
         <v>-3</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B103,'Ark3'!$D$2:$D$100,'Ark1'!$A103)</f>
-        <v>0.15083333333333329</v>
+        <v>0.16461538461538461</v>
       </c>
       <c r="J103" s="4">
-        <v>0.14724409448818901</v>
+        <v>0.12325581395348841</v>
       </c>
       <c r="K103" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B103,'Ark3'!$D$2:$D$100,'Ark1'!$A103)</f>
-        <v>0.15083333333333329</v>
+        <v>0.37083306185305759</v>
       </c>
       <c r="L103" s="4">
-        <v>0.35434908088852468</v>
+        <v>0.32873061658469149</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -3682,24 +3613,21 @@
         <v>62</v>
       </c>
       <c r="B104">
-        <f t="shared" ref="B104:B110" si="4">B103+1</f>
         <v>-2</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B104,'Ark3'!$D$2:$D$100,'Ark1'!$A104)</f>
-        <v>0.1795968234575443</v>
+        <v>0.21394230769230771</v>
       </c>
       <c r="J104" s="4">
-        <v>0.17633674630261659</v>
+        <v>0.1255673222390318</v>
       </c>
       <c r="K104" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B104,'Ark3'!$D$2:$D$100,'Ark1'!$A104)</f>
-        <v>0.1795968234575443</v>
+        <v>0.41008657216689942</v>
       </c>
       <c r="L104" s="4">
-        <v>0.38110641323129579</v>
+        <v>0.33136108676902742</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,24 +3635,21 @@
         <v>62</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B105,'Ark3'!$D$2:$D$100,'Ark1'!$A105)</f>
-        <v>0.16542473919523101</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="J105" s="4">
-        <v>0.1693811074918567</v>
+        <v>0.1519274376417234</v>
       </c>
       <c r="K105" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B105,'Ark3'!$D$2:$D$100,'Ark1'!$A105)</f>
-        <v>0.16542473919523101</v>
+        <v>0.38914419838794218</v>
       </c>
       <c r="L105" s="4">
-        <v>0.37508818685302359</v>
+        <v>0.3589505416256446</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -3732,24 +3657,21 @@
         <v>62</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B106,'Ark3'!$D$2:$D$100,'Ark1'!$A106)</f>
-        <v>0.14798850574712641</v>
+        <v>0.15483870967741939</v>
       </c>
       <c r="J106" s="4">
-        <v>0.14643799472295521</v>
+        <v>0.1396348012889366</v>
       </c>
       <c r="K106" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B106,'Ark3'!$D$2:$D$100,'Ark1'!$A106)</f>
-        <v>0.14798850574712641</v>
+        <v>0.36175085855164352</v>
       </c>
       <c r="L106" s="4">
-        <v>0.35354477569959208</v>
+        <v>0.34660773730246669</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -3757,24 +3679,21 @@
         <v>62</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B107,'Ark3'!$D$2:$D$100,'Ark1'!$A107)</f>
-        <v>0.1822759315206445</v>
+        <v>0.2017259978425027</v>
       </c>
       <c r="J107" s="4">
-        <v>0.1763593380614657</v>
+        <v>0.15240328253223909</v>
       </c>
       <c r="K107" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B107,'Ark3'!$D$2:$D$100,'Ark1'!$A107)</f>
-        <v>0.1822759315206445</v>
+        <v>0.40128869861603289</v>
       </c>
       <c r="L107" s="4">
-        <v>0.38112559864169099</v>
+        <v>0.35941135486464199</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -3782,24 +3701,21 @@
         <v>62</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B108,'Ark3'!$D$2:$D$100,'Ark1'!$A108)</f>
-        <v>0.1622971285892634</v>
+        <v>0.17448856799037299</v>
       </c>
       <c r="J108" s="4">
-        <v>0.1647196261682243</v>
+        <v>0.13374805598755829</v>
       </c>
       <c r="K108" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B108,'Ark3'!$D$2:$D$100,'Ark1'!$A108)</f>
-        <v>0.1622971285892634</v>
+        <v>0.37952906032482148</v>
       </c>
       <c r="L108" s="4">
-        <v>0.37092731218289221</v>
+        <v>0.34038142356348899</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -3807,24 +3723,21 @@
         <v>62</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B109,'Ark3'!$D$2:$D$100,'Ark1'!$A109)</f>
-        <v>0.1400512382578992</v>
+        <v>0.1621187800963082</v>
       </c>
       <c r="J109" s="4">
-        <v>0.13946117274167991</v>
+        <v>0.11374407582938389</v>
       </c>
       <c r="K109" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B109,'Ark3'!$D$2:$D$100,'Ark1'!$A109)</f>
-        <v>0.1400512382578992</v>
+        <v>0.36855973903343409</v>
       </c>
       <c r="L109" s="4">
-        <v>0.3464271265925854</v>
+        <v>0.31750017487098059</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -3832,24 +3745,21 @@
         <v>62</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B110,'Ark3'!$D$2:$D$100,'Ark1'!$A110)</f>
-        <v>0.1457364341085271</v>
+        <v>0.1440443213296399</v>
       </c>
       <c r="J110" s="4">
-        <v>0.1354466858789625</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="K110" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B110,'Ark3'!$D$2:$D$100,'Ark1'!$A110)</f>
-        <v>0.1457364341085271</v>
+        <v>0.351134667645226</v>
       </c>
       <c r="L110" s="4">
-        <v>0.34220006014518489</v>
+        <v>0.33960447741063482</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4422,18 +4332,16 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B127,'Ark3'!$D$2:$D$100,'Ark1'!$A127)</f>
-        <v>0.1384615384615385</v>
+        <v>0.15860215053763441</v>
       </c>
       <c r="J127" s="4">
-        <v>0.13063763608087089</v>
+        <v>9.7402597402597407E-2</v>
       </c>
       <c r="K127" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B127,'Ark3'!$D$2:$D$100,'Ark1'!$A127)</f>
-        <v>0.1384615384615385</v>
+        <v>0.36530467884010459</v>
       </c>
       <c r="L127" s="4">
-        <v>0.33700362627139913</v>
+        <v>0.29650519628132138</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -4441,24 +4349,21 @@
         <v>63</v>
       </c>
       <c r="B128">
-        <f>B127+1</f>
         <v>-3</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B128,'Ark3'!$D$2:$D$100,'Ark1'!$A128)</f>
-        <v>0.13631840796019901</v>
+        <v>0.1523972602739726</v>
       </c>
       <c r="J128" s="4">
-        <v>0.139906103286385</v>
+        <v>0.10410094637223979</v>
       </c>
       <c r="K128" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B128,'Ark3'!$D$2:$D$100,'Ark1'!$A128)</f>
-        <v>0.13631840796019901</v>
+        <v>0.35940553047353019</v>
       </c>
       <c r="L128" s="4">
-        <v>0.3468895869719994</v>
+        <v>0.30539145262538681</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -4466,24 +4371,21 @@
         <v>63</v>
       </c>
       <c r="B129">
-        <f t="shared" ref="B129:B135" si="5">B128+1</f>
         <v>-2</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B129,'Ark3'!$D$2:$D$100,'Ark1'!$A129)</f>
-        <v>0.14665653495440731</v>
+        <v>0.16879432624113469</v>
       </c>
       <c r="J129" s="4">
-        <v>0.14164904862579281</v>
+        <v>0.1142284569138277</v>
       </c>
       <c r="K129" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B129,'Ark3'!$D$2:$D$100,'Ark1'!$A129)</f>
-        <v>0.14665653495440731</v>
+        <v>0.37457015587194892</v>
       </c>
       <c r="L129" s="4">
-        <v>0.34868982728092401</v>
+        <v>0.31808853570179718</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -4491,24 +4393,21 @@
         <v>63</v>
       </c>
       <c r="B130">
-        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B130,'Ark3'!$D$2:$D$100,'Ark1'!$A130)</f>
-        <v>0.1275415896487985</v>
+        <v>0.13968668407310711</v>
       </c>
       <c r="J130" s="4">
-        <v>0.12227324913892081</v>
+        <v>0.1114245416078984</v>
       </c>
       <c r="K130" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B130,'Ark3'!$D$2:$D$100,'Ark1'!$A130)</f>
-        <v>0.1275415896487985</v>
+        <v>0.3466616713248914</v>
       </c>
       <c r="L130" s="4">
-        <v>0.32760113199427782</v>
+        <v>0.31465713584053379</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -4516,24 +4415,21 @@
         <v>63</v>
       </c>
       <c r="B131">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B131,'Ark3'!$D$2:$D$100,'Ark1'!$A131)</f>
-        <v>0.14734299516908211</v>
+        <v>0.14111261872455899</v>
       </c>
       <c r="J131" s="4">
-        <v>0.14765840220385679</v>
+        <v>0.13821138211382111</v>
       </c>
       <c r="K131" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B131,'Ark3'!$D$2:$D$100,'Ark1'!$A131)</f>
-        <v>0.14734299516908211</v>
+        <v>0.34813768477609008</v>
       </c>
       <c r="L131" s="4">
-        <v>0.35476104417263848</v>
+        <v>0.34512171181774193</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -4541,24 +4437,21 @@
         <v>63</v>
       </c>
       <c r="B132">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B132,'Ark3'!$D$2:$D$100,'Ark1'!$A132)</f>
-        <v>0.12625</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="J132" s="4">
-        <v>0.1236151603498542</v>
+        <v>0.1193595342066958</v>
       </c>
       <c r="K132" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B132,'Ark3'!$D$2:$D$100,'Ark1'!$A132)</f>
-        <v>0.12625</v>
+        <v>0.323290198366459</v>
       </c>
       <c r="L132" s="4">
-        <v>0.32914199440596159</v>
+        <v>0.32421109759022188</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -4566,24 +4459,21 @@
         <v>63</v>
       </c>
       <c r="B133">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B133,'Ark3'!$D$2:$D$100,'Ark1'!$A133)</f>
-        <v>0.15177195685670261</v>
+        <v>0.16714697406340059</v>
       </c>
       <c r="J133" s="4">
-        <v>0.14347826086956519</v>
+        <v>0.108</v>
       </c>
       <c r="K133" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B133,'Ark3'!$D$2:$D$100,'Ark1'!$A133)</f>
-        <v>0.15177195685670261</v>
+        <v>0.37310703976854881</v>
       </c>
       <c r="L133" s="4">
-        <v>0.3505599086139346</v>
+        <v>0.31038041175306152</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -4591,24 +4481,21 @@
         <v>63</v>
       </c>
       <c r="B134">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B134,'Ark3'!$D$2:$D$100,'Ark1'!$A134)</f>
-        <v>0.15076923076923079</v>
+        <v>0.19372693726937271</v>
       </c>
       <c r="J134" s="4">
-        <v>0.14775977121067679</v>
+        <v>8.3076923076923076E-2</v>
       </c>
       <c r="K134" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B134,'Ark3'!$D$2:$D$100,'Ark1'!$A134)</f>
-        <v>0.15076923076923079</v>
+        <v>0.39521742249754283</v>
       </c>
       <c r="L134" s="4">
-        <v>0.35486169308963922</v>
+        <v>0.27599845638878873</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -4616,24 +4503,21 @@
         <v>63</v>
       </c>
       <c r="B135">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B135,'Ark3'!$D$2:$D$100,'Ark1'!$A135)</f>
-        <v>0.13774597495527729</v>
+        <v>0.14447592067988671</v>
       </c>
       <c r="J135" s="4">
-        <v>0.13902847571189281</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="K135" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B135,'Ark3'!$D$2:$D$100,'Ark1'!$A135)</f>
-        <v>0.13774597495527729</v>
+        <v>0.35157165560321518</v>
       </c>
       <c r="L135" s="4">
-        <v>0.34597624001240379</v>
+        <v>0.26068286394689538</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5206,18 +5090,16 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B152,'Ark3'!$D$2:$D$100,'Ark1'!$A152)</f>
-        <v>7.623318385650224E-2</v>
+        <v>8.3832335329341312E-2</v>
       </c>
       <c r="J152" s="4">
-        <v>6.7484662576687116E-2</v>
+        <v>2.8169014084507039E-2</v>
       </c>
       <c r="K152" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B152,'Ark3'!$D$2:$D$100,'Ark1'!$A152)</f>
-        <v>7.623318385650224E-2</v>
+        <v>0.2771362027642188</v>
       </c>
       <c r="L152" s="4">
-        <v>0.2508594883467592</v>
+        <v>0.16545549471085541</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -5225,24 +5107,21 @@
         <v>64</v>
       </c>
       <c r="B153">
-        <f>B152+1</f>
         <v>-3</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B153,'Ark3'!$D$2:$D$100,'Ark1'!$A153)</f>
-        <v>8.1769436997319034E-2</v>
+        <v>7.5107296137339061E-2</v>
       </c>
       <c r="J153" s="4">
-        <v>6.7088607594936706E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="K153" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B153,'Ark3'!$D$2:$D$100,'Ark1'!$A153)</f>
-        <v>8.1769436997319034E-2</v>
+        <v>0.26356439479618099</v>
       </c>
       <c r="L153" s="4">
-        <v>0.25017539112772319</v>
+        <v>0.2369329532296649</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -5250,24 +5129,21 @@
         <v>64</v>
       </c>
       <c r="B154">
-        <f t="shared" ref="B154:B160" si="6">B153+1</f>
         <v>-2</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B154,'Ark3'!$D$2:$D$100,'Ark1'!$A154)</f>
-        <v>5.1567239635995958E-2</v>
+        <v>5.6466302367941708E-2</v>
       </c>
       <c r="J154" s="4">
-        <v>5.2532833020637902E-2</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="K154" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B154,'Ark3'!$D$2:$D$100,'Ark1'!$A154)</f>
-        <v>5.1567239635995958E-2</v>
+        <v>0.23081997111349331</v>
       </c>
       <c r="L154" s="4">
-        <v>0.2230989342768443</v>
+        <v>0.20801767422873449</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -5275,24 +5151,21 @@
         <v>64</v>
       </c>
       <c r="B155">
-        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B155,'Ark3'!$D$2:$D$100,'Ark1'!$A155)</f>
-        <v>5.5732484076433123E-2</v>
+        <v>6.0162601626016263E-2</v>
       </c>
       <c r="J155" s="4">
-        <v>5.3293856402664687E-2</v>
+        <v>4.9523809523809532E-2</v>
       </c>
       <c r="K155" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B155,'Ark3'!$D$2:$D$100,'Ark1'!$A155)</f>
-        <v>5.5732484076433123E-2</v>
+        <v>0.23778785291012139</v>
       </c>
       <c r="L155" s="4">
-        <v>0.22461883552453221</v>
+        <v>0.2169589864791476</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -5300,24 +5173,21 @@
         <v>64</v>
       </c>
       <c r="B156">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B156,'Ark3'!$D$2:$D$100,'Ark1'!$A156)</f>
-        <v>4.7656249999999997E-2</v>
+        <v>5.7793345008756568E-2</v>
       </c>
       <c r="J156" s="4">
-        <v>4.5845272206303717E-2</v>
+        <v>4.0209790209790208E-2</v>
       </c>
       <c r="K156" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B156,'Ark3'!$D$2:$D$100,'Ark1'!$A156)</f>
-        <v>4.7656249999999997E-2</v>
+        <v>0.23335225364554629</v>
       </c>
       <c r="L156" s="4">
-        <v>0.20914942797586999</v>
+        <v>0.1964509174859585</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -5325,24 +5195,21 @@
         <v>64</v>
       </c>
       <c r="B157">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B157,'Ark3'!$D$2:$D$100,'Ark1'!$A157)</f>
-        <v>5.6603773584905662E-2</v>
+        <v>5.4145516074450083E-2</v>
       </c>
       <c r="J157" s="4">
-        <v>5.4545454545454543E-2</v>
+        <v>5.0880626223091967E-2</v>
       </c>
       <c r="K157" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B157,'Ark3'!$D$2:$D$100,'Ark1'!$A157)</f>
-        <v>5.6603773584905662E-2</v>
+        <v>0.22630461586870371</v>
       </c>
       <c r="L157" s="4">
-        <v>0.22709083630539631</v>
+        <v>0.21975392624077961</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -5350,24 +5217,21 @@
         <v>64</v>
       </c>
       <c r="B158">
-        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B158,'Ark3'!$D$2:$D$100,'Ark1'!$A158)</f>
-        <v>6.749740394600208E-2</v>
+        <v>9.2421441774491686E-2</v>
       </c>
       <c r="J158" s="4">
-        <v>6.5621939275220378E-2</v>
+        <v>2.623906705539359E-2</v>
       </c>
       <c r="K158" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B158,'Ark3'!$D$2:$D$100,'Ark1'!$A158)</f>
-        <v>6.749740394600208E-2</v>
+        <v>0.28961995593331608</v>
       </c>
       <c r="L158" s="4">
-        <v>0.24762007261322669</v>
+        <v>0.15984548293729209</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -5375,24 +5239,21 @@
         <v>64</v>
       </c>
       <c r="B159">
-        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B159,'Ark3'!$D$2:$D$100,'Ark1'!$A159)</f>
-        <v>6.2841530054644809E-2</v>
+        <v>5.7339449541284407E-2</v>
       </c>
       <c r="J159" s="4">
-        <v>5.7106598984771571E-2</v>
+        <v>4.2654028436018961E-2</v>
       </c>
       <c r="K159" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B159,'Ark3'!$D$2:$D$100,'Ark1'!$A159)</f>
-        <v>6.2841530054644809E-2</v>
+        <v>0.23249007950359279</v>
       </c>
       <c r="L159" s="4">
-        <v>0.23204619224879361</v>
+        <v>0.2020758825149559</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -5400,24 +5261,21 @@
         <v>64</v>
       </c>
       <c r="B160">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B160,'Ark3'!$D$2:$D$100,'Ark1'!$A160)</f>
-        <v>7.6732673267326731E-2</v>
+        <v>8.8524590163934422E-2</v>
       </c>
       <c r="J160" s="4">
-        <v>7.8160919540229884E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K160" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B160,'Ark3'!$D$2:$D$100,'Ark1'!$A160)</f>
-        <v>7.6732673267326731E-2</v>
+        <v>0.2840563097349571</v>
       </c>
       <c r="L160" s="4">
-        <v>0.2684246452858895</v>
+        <v>0.21794494717703361</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -5990,18 +5848,16 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B177,'Ark3'!$D$2:$D$100,'Ark1'!$A177)</f>
-        <v>0.1057692307692308</v>
+        <v>0.1115241635687732</v>
       </c>
       <c r="J177" s="4">
-        <v>9.6491228070175433E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K177" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B177,'Ark3'!$D$2:$D$100,'Ark1'!$A177)</f>
-        <v>0.1057692307692308</v>
+        <v>0.3147801208924394</v>
       </c>
       <c r="L177" s="4">
-        <v>0.29526373122292687</v>
+        <v>0.22329687826943609</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6009,24 +5865,21 @@
         <v>65</v>
       </c>
       <c r="B178">
-        <f>B177+1</f>
         <v>-3</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B178,'Ark3'!$D$2:$D$100,'Ark1'!$A178)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>7.2886297376093298E-2</v>
       </c>
       <c r="J178" s="4">
-        <v>6.8702290076335881E-2</v>
+        <v>6.1855670103092793E-2</v>
       </c>
       <c r="K178" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B178,'Ark3'!$D$2:$D$100,'Ark1'!$A178)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.25994977405432962</v>
       </c>
       <c r="L178" s="4">
-        <v>0.25294719886688383</v>
+        <v>0.24089322568140051</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6034,24 +5887,21 @@
         <v>65</v>
       </c>
       <c r="B179">
-        <f t="shared" ref="B179:B185" si="7">B178+1</f>
         <v>-2</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B179,'Ark3'!$D$2:$D$100,'Ark1'!$A179)</f>
-        <v>6.3732928679817905E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="J179" s="4">
-        <v>6.7605633802816895E-2</v>
+        <v>5.1643192488262907E-2</v>
       </c>
       <c r="K179" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B179,'Ark3'!$D$2:$D$100,'Ark1'!$A179)</f>
-        <v>6.3732928679817905E-2</v>
+        <v>0.2411837083116907</v>
       </c>
       <c r="L179" s="4">
-        <v>0.25106794315670072</v>
+        <v>0.22130561031723331</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6059,24 +5909,21 @@
         <v>65</v>
       </c>
       <c r="B180">
-        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B180,'Ark3'!$D$2:$D$100,'Ark1'!$A180)</f>
-        <v>6.5430752453653221E-2</v>
+        <v>5.8165548098434001E-2</v>
       </c>
       <c r="J180" s="4">
-        <v>6.0544904137235123E-2</v>
+        <v>4.960835509138381E-2</v>
       </c>
       <c r="K180" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B180,'Ark3'!$D$2:$D$100,'Ark1'!$A180)</f>
-        <v>6.5430752453653221E-2</v>
+        <v>0.23405622639195639</v>
       </c>
       <c r="L180" s="4">
-        <v>0.23849364503115819</v>
+        <v>0.21713444267667659</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6084,24 +5931,21 @@
         <v>65</v>
       </c>
       <c r="B181">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B181,'Ark3'!$D$2:$D$100,'Ark1'!$A181)</f>
-        <v>7.309322033898305E-2</v>
+        <v>7.6738609112709827E-2</v>
       </c>
       <c r="J181" s="4">
-        <v>6.4642507345739467E-2</v>
+        <v>5.5023923444976079E-2</v>
       </c>
       <c r="K181" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B181,'Ark3'!$D$2:$D$100,'Ark1'!$A181)</f>
-        <v>7.309322033898305E-2</v>
+        <v>0.26617624797144568</v>
       </c>
       <c r="L181" s="4">
-        <v>0.24589398851902719</v>
+        <v>0.22802695299831871</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6109,24 +5953,21 @@
         <v>65</v>
       </c>
       <c r="B182">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B182,'Ark3'!$D$2:$D$100,'Ark1'!$A182)</f>
-        <v>8.0091533180778038E-2</v>
+        <v>7.4592074592074592E-2</v>
       </c>
       <c r="J182" s="4">
-        <v>7.6190476190476197E-2</v>
+        <v>6.9060773480662987E-2</v>
       </c>
       <c r="K182" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B182,'Ark3'!$D$2:$D$100,'Ark1'!$A182)</f>
-        <v>8.0091533180778038E-2</v>
+        <v>0.26273198701361988</v>
       </c>
       <c r="L182" s="4">
-        <v>0.26530263385112612</v>
+        <v>0.25355745511996991</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6134,24 +5975,21 @@
         <v>65</v>
       </c>
       <c r="B183">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B183,'Ark3'!$D$2:$D$100,'Ark1'!$A183)</f>
-        <v>8.1818181818181818E-2</v>
+        <v>8.5858585858585856E-2</v>
       </c>
       <c r="J183" s="4">
-        <v>6.9405099150141647E-2</v>
+        <v>4.2056074766355138E-2</v>
       </c>
       <c r="K183" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B183,'Ark3'!$D$2:$D$100,'Ark1'!$A183)</f>
-        <v>8.1818181818181818E-2</v>
+        <v>0.28015511612845778</v>
       </c>
       <c r="L183" s="4">
-        <v>0.25414175446411919</v>
+        <v>0.20071711770948161</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6159,24 +5997,21 @@
         <v>65</v>
       </c>
       <c r="B184">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B184,'Ark3'!$D$2:$D$100,'Ark1'!$A184)</f>
-        <v>7.9741379310344834E-2</v>
+        <v>8.4375000000000006E-2</v>
       </c>
       <c r="J184" s="4">
-        <v>7.847082494969819E-2</v>
+        <v>5.4945054945054937E-2</v>
       </c>
       <c r="K184" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B184,'Ark3'!$D$2:$D$100,'Ark1'!$A184)</f>
-        <v>7.9741379310344834E-2</v>
+        <v>0.27794938275700493</v>
       </c>
       <c r="L184" s="4">
-        <v>0.26891105328976722</v>
+        <v>0.22787298190470029</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6184,24 +6019,21 @@
         <v>65</v>
       </c>
       <c r="B185">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B185,'Ark3'!$D$2:$D$100,'Ark1'!$A185)</f>
-        <v>9.602649006622517E-2</v>
+        <v>9.5041322314049589E-2</v>
       </c>
       <c r="J185" s="4">
-        <v>8.4112149532710276E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K185" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B185,'Ark3'!$D$2:$D$100,'Ark1'!$A185)</f>
-        <v>9.602649006622517E-2</v>
+        <v>0.29327200576742152</v>
       </c>
       <c r="L185" s="4">
-        <v>0.2775559328021962</v>
+        <v>0.17950549357115009</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6774,18 +6606,16 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B202,'Ark3'!$D$2:$D$100,'Ark1'!$A202)</f>
-        <v>5.6034482758620691E-2</v>
+        <v>5.0761421319796947E-2</v>
       </c>
       <c r="J202" s="4">
-        <v>6.5306122448979598E-2</v>
+        <v>0</v>
       </c>
       <c r="K202" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B202,'Ark3'!$D$2:$D$100,'Ark1'!$A202)</f>
-        <v>5.6034482758620691E-2</v>
+        <v>0.21951013513136711</v>
       </c>
       <c r="L202" s="4">
-        <v>0.2470652400068826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -6793,24 +6623,21 @@
         <v>66</v>
       </c>
       <c r="B203">
-        <f>B202+1</f>
         <v>-3</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B203,'Ark3'!$D$2:$D$100,'Ark1'!$A203)</f>
-        <v>7.5409836065573776E-2</v>
+        <v>9.012875536480687E-2</v>
       </c>
       <c r="J203" s="4">
-        <v>7.4303405572755415E-2</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="K203" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B203,'Ark3'!$D$2:$D$100,'Ark1'!$A203)</f>
-        <v>7.5409836065573776E-2</v>
+        <v>0.28636613420793611</v>
       </c>
       <c r="L203" s="4">
-        <v>0.26226400723897669</v>
+        <v>0.22612433149569611</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -6818,24 +6645,21 @@
         <v>66</v>
       </c>
       <c r="B204">
-        <f t="shared" ref="B204:B210" si="8">B203+1</f>
         <v>-2</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B204,'Ark3'!$D$2:$D$100,'Ark1'!$A204)</f>
-        <v>5.3908355795148251E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="J204" s="4">
-        <v>4.7146401985111663E-2</v>
+        <v>2.3529411764705879E-2</v>
       </c>
       <c r="K204" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B204,'Ark3'!$D$2:$D$100,'Ark1'!$A204)</f>
-        <v>5.3908355795148251E-2</v>
+        <v>0.22906142364542559</v>
       </c>
       <c r="L204" s="4">
-        <v>0.2119519255986364</v>
+        <v>0.15157763207911909</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -6843,24 +6667,21 @@
         <v>66</v>
       </c>
       <c r="B205">
-        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B205,'Ark3'!$D$2:$D$100,'Ark1'!$A205)</f>
-        <v>4.145077720207254E-2</v>
+        <v>4.3333333333333328E-2</v>
       </c>
       <c r="J205" s="4">
-        <v>3.9808917197452227E-2</v>
+        <v>2.6785714285714281E-2</v>
       </c>
       <c r="K205" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B205,'Ark3'!$D$2:$D$100,'Ark1'!$A205)</f>
-        <v>4.145077720207254E-2</v>
+        <v>0.20360637405433929</v>
       </c>
       <c r="L205" s="4">
-        <v>0.19551001843644389</v>
+        <v>0.1614566189287957</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -6868,24 +6689,21 @@
         <v>66</v>
       </c>
       <c r="B206">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B206,'Ark3'!$D$2:$D$100,'Ark1'!$A206)</f>
-        <v>3.5256410256410263E-2</v>
+        <v>4.0590405904059039E-2</v>
       </c>
       <c r="J206" s="4">
-        <v>2.9806259314456039E-2</v>
+        <v>2.205882352941177E-2</v>
       </c>
       <c r="K206" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B206,'Ark3'!$D$2:$D$100,'Ark1'!$A206)</f>
-        <v>3.5256410256410263E-2</v>
+        <v>0.19733936468075181</v>
       </c>
       <c r="L206" s="4">
-        <v>0.1700524807820675</v>
+        <v>0.1468748849664572</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -6893,24 +6711,21 @@
         <v>66</v>
       </c>
       <c r="B207">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B207,'Ark3'!$D$2:$D$100,'Ark1'!$A207)</f>
-        <v>5.1418439716312048E-2</v>
+        <v>6.7137809187279157E-2</v>
       </c>
       <c r="J207" s="4">
-        <v>5.1324503311258277E-2</v>
+        <v>2.5862068965517241E-2</v>
       </c>
       <c r="K207" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B207,'Ark3'!$D$2:$D$100,'Ark1'!$A207)</f>
-        <v>5.1418439716312048E-2</v>
+        <v>0.25026051179683068</v>
       </c>
       <c r="L207" s="4">
-        <v>0.22065878335364519</v>
+        <v>0.1587237296510515</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -6918,24 +6733,21 @@
         <v>66</v>
       </c>
       <c r="B208">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B208,'Ark3'!$D$2:$D$100,'Ark1'!$A208)</f>
-        <v>4.960835509138381E-2</v>
+        <v>6.2745098039215685E-2</v>
       </c>
       <c r="J208" s="4">
-        <v>4.8426150121065367E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K208" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B208,'Ark3'!$D$2:$D$100,'Ark1'!$A208)</f>
-        <v>4.960835509138381E-2</v>
+        <v>0.24250391896063231</v>
       </c>
       <c r="L208" s="4">
-        <v>0.2146649904048572</v>
+        <v>0.1739926363384382</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -6943,24 +6755,21 @@
         <v>66</v>
       </c>
       <c r="B209">
-        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B209,'Ark3'!$D$2:$D$100,'Ark1'!$A209)</f>
-        <v>6.8728522336769765E-2</v>
+        <v>8.3700440528634359E-2</v>
       </c>
       <c r="J209" s="4">
-        <v>6.8403908794788276E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K209" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B209,'Ark3'!$D$2:$D$100,'Ark1'!$A209)</f>
-        <v>6.8728522336769765E-2</v>
+        <v>0.27693803780619752</v>
       </c>
       <c r="L209" s="4">
-        <v>0.25243774293156429</v>
+        <v>0.1739926363384382</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -6968,24 +6777,21 @@
         <v>66</v>
       </c>
       <c r="B210">
-        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B210,'Ark3'!$D$2:$D$100,'Ark1'!$A210)</f>
-        <v>8.8785046728971959E-2</v>
+        <v>0.10119047619047621</v>
       </c>
       <c r="J210" s="4">
-        <v>8.3700440528634359E-2</v>
+        <v>0</v>
       </c>
       <c r="K210" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B210,'Ark3'!$D$2:$D$100,'Ark1'!$A210)</f>
-        <v>8.8785046728971959E-2</v>
+        <v>0.30158077478317619</v>
       </c>
       <c r="L210" s="4">
-        <v>0.27693803780619758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -7558,18 +7364,16 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B227,'Ark3'!$D$2:$D$100,'Ark1'!$A227)</f>
-        <v>1.492537313432836E-2</v>
+        <v>1.754385964912281E-2</v>
       </c>
       <c r="J227" s="4">
-        <v>1.379310344827586E-2</v>
+        <v>0</v>
       </c>
       <c r="K227" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B227,'Ark3'!$D$2:$D$100,'Ark1'!$A227)</f>
-        <v>1.492537313432836E-2</v>
+        <v>0.13128622409733129</v>
       </c>
       <c r="L227" s="4">
-        <v>0.1166312725881915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -7577,24 +7381,21 @@
         <v>67</v>
       </c>
       <c r="B228">
-        <f>B227+1</f>
         <v>-3</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B228,'Ark3'!$D$2:$D$100,'Ark1'!$A228)</f>
-        <v>1.7441860465116279E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="J228" s="4">
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="K228" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B228,'Ark3'!$D$2:$D$100,'Ark1'!$A228)</f>
-        <v>1.7441860465116279E-2</v>
+        <v>0.19021219008531601</v>
       </c>
       <c r="L228" s="4">
-        <v>0.17950549357115009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -7602,24 +7403,21 @@
         <v>67</v>
       </c>
       <c r="B229">
-        <f t="shared" ref="B229:B235" si="9">B228+1</f>
         <v>-2</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B229,'Ark3'!$D$2:$D$100,'Ark1'!$A229)</f>
-        <v>3.9772727272727272E-2</v>
+        <v>3.8167938931297711E-2</v>
       </c>
       <c r="J229" s="4">
-        <v>4.2105263157894743E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="K229" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B229,'Ark3'!$D$2:$D$100,'Ark1'!$A229)</f>
-        <v>3.9772727272727272E-2</v>
+        <v>0.19160153279406311</v>
       </c>
       <c r="L229" s="4">
-        <v>0.20082930556146231</v>
+        <v>0.25753937681885641</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -7627,24 +7425,21 @@
         <v>67</v>
       </c>
       <c r="B230">
-        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B230,'Ark3'!$D$2:$D$100,'Ark1'!$A230)</f>
-        <v>2.6119402985074629E-2</v>
+        <v>3.2894736842105261E-2</v>
       </c>
       <c r="J230" s="4">
-        <v>2.3890784982935159E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="K230" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B230,'Ark3'!$D$2:$D$100,'Ark1'!$A230)</f>
-        <v>2.6119402985074629E-2</v>
+        <v>0.1783610751542889</v>
       </c>
       <c r="L230" s="4">
-        <v>0.1527089236941781</v>
+        <v>0.1443048932579844</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -7652,24 +7447,21 @@
         <v>67</v>
       </c>
       <c r="B231">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B231,'Ark3'!$D$2:$D$100,'Ark1'!$A231)</f>
-        <v>2.469135802469136E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="J231" s="4">
-        <v>2.209944751381215E-2</v>
+        <v>1.4388489208633091E-2</v>
       </c>
       <c r="K231" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B231,'Ark3'!$D$2:$D$100,'Ark1'!$A231)</f>
-        <v>2.469135802469136E-2</v>
+        <v>0.203931119992323</v>
       </c>
       <c r="L231" s="4">
-        <v>0.147007013211603</v>
+        <v>0.1190859378219198</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -7677,24 +7469,21 @@
         <v>67</v>
       </c>
       <c r="B232">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B232,'Ark3'!$D$2:$D$100,'Ark1'!$A232)</f>
-        <v>1.470588235294118E-2</v>
+        <v>2.0833333333333329E-2</v>
       </c>
       <c r="J232" s="4">
-        <v>1.393728222996516E-2</v>
+        <v>0</v>
       </c>
       <c r="K232" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B232,'Ark3'!$D$2:$D$100,'Ark1'!$A232)</f>
-        <v>1.470588235294118E-2</v>
+        <v>0.1428261375083551</v>
       </c>
       <c r="L232" s="4">
-        <v>0.1172306887892733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -7702,24 +7491,21 @@
         <v>67</v>
       </c>
       <c r="B233">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B233,'Ark3'!$D$2:$D$100,'Ark1'!$A233)</f>
-        <v>1.6393442622950821E-2</v>
+        <v>1.4184397163120571E-2</v>
       </c>
       <c r="J233" s="4">
-        <v>1.9801980198019799E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K233" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B233,'Ark3'!$D$2:$D$100,'Ark1'!$A233)</f>
-        <v>1.6393442622950821E-2</v>
+        <v>0.1182505815640643</v>
       </c>
       <c r="L233" s="4">
-        <v>0.1393192799947553</v>
+        <v>0.1739926363384382</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -7727,24 +7513,21 @@
         <v>67</v>
       </c>
       <c r="B234">
-        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B234,'Ark3'!$D$2:$D$100,'Ark1'!$A234)</f>
-        <v>2.9585798816568049E-2</v>
+        <v>1.515151515151515E-2</v>
       </c>
       <c r="J234" s="4">
-        <v>2.2727272727272731E-2</v>
+        <v>0</v>
       </c>
       <c r="K234" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B234,'Ark3'!$D$2:$D$100,'Ark1'!$A234)</f>
-        <v>2.9585798816568049E-2</v>
+        <v>0.1221554204287659</v>
       </c>
       <c r="L234" s="4">
-        <v>0.14903269373413641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -7752,24 +7535,21 @@
         <v>67</v>
       </c>
       <c r="B235">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B235,'Ark3'!$D$2:$D$100,'Ark1'!$A235)</f>
-        <v>4.4444444444444453E-2</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="J235" s="4">
-        <v>4.2253521126760563E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K235" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B235,'Ark3'!$D$2:$D$100,'Ark1'!$A235)</f>
-        <v>4.4444444444444453E-2</v>
+        <v>0.19410774385513069</v>
       </c>
       <c r="L235" s="4">
-        <v>0.20116699798712251</v>
+        <v>0.24206145913796359</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -8342,14 +8122,12 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B252,'Ark3'!$D$2:$D$100,'Ark1'!$A252)</f>
         <v>0</v>
       </c>
       <c r="J252" s="4">
         <v>0</v>
       </c>
       <c r="K252" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B252,'Ark3'!$D$2:$D$100,'Ark1'!$A252)</f>
         <v>0</v>
       </c>
       <c r="L252" s="4">
@@ -8361,24 +8139,21 @@
         <v>68</v>
       </c>
       <c r="B253">
-        <f>B252+1</f>
         <v>-3</v>
       </c>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B253,'Ark3'!$D$2:$D$100,'Ark1'!$A253)</f>
-        <v>5.7692307692307702E-2</v>
+        <v>2.2727272727272731E-2</v>
       </c>
       <c r="J253" s="4">
-        <v>1.785714285714286E-2</v>
+        <v>0</v>
       </c>
       <c r="K253" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B253,'Ark3'!$D$2:$D$100,'Ark1'!$A253)</f>
-        <v>5.7692307692307702E-2</v>
+        <v>0.14903269373413641</v>
       </c>
       <c r="L253" s="4">
-        <v>0.13243211584099401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -8386,24 +8161,21 @@
         <v>68</v>
       </c>
       <c r="B254">
-        <f t="shared" ref="B254:B260" si="10">B253+1</f>
         <v>-2</v>
       </c>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B254,'Ark3'!$D$2:$D$100,'Ark1'!$A254)</f>
-        <v>2.0833333333333329E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="J254" s="4">
-        <v>1.8518518518518521E-2</v>
+        <v>0</v>
       </c>
       <c r="K254" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B254,'Ark3'!$D$2:$D$100,'Ark1'!$A254)</f>
-        <v>2.0833333333333329E-2</v>
+        <v>0.17141982574219339</v>
       </c>
       <c r="L254" s="4">
-        <v>0.13481684980149111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -8411,24 +8183,21 @@
         <v>68</v>
       </c>
       <c r="B255">
-        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B255,'Ark3'!$D$2:$D$100,'Ark1'!$A255)</f>
-        <v>1.492537313432836E-2</v>
+        <v>0</v>
       </c>
       <c r="J255" s="4">
-        <v>1.428571428571429E-2</v>
+        <v>4.7619047619047623E-2</v>
       </c>
       <c r="K255" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B255,'Ark3'!$D$2:$D$100,'Ark1'!$A255)</f>
-        <v>1.492537313432836E-2</v>
+        <v>0</v>
       </c>
       <c r="L255" s="4">
-        <v>0.1186660551845439</v>
+        <v>0.21295885499997999</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -8436,24 +8205,21 @@
         <v>68</v>
       </c>
       <c r="B256">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B256,'Ark3'!$D$2:$D$100,'Ark1'!$A256)</f>
-        <v>2.1739130434782612E-2</v>
+        <v>0</v>
       </c>
       <c r="J256" s="4">
-        <v>1.754385964912281E-2</v>
+        <v>4.7619047619047623E-2</v>
       </c>
       <c r="K256" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B256,'Ark3'!$D$2:$D$100,'Ark1'!$A256)</f>
-        <v>2.1739130434782612E-2</v>
+        <v>0</v>
       </c>
       <c r="L256" s="4">
-        <v>0.13128622409733129</v>
+        <v>0.21295885499997999</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -8461,24 +8227,21 @@
         <v>68</v>
       </c>
       <c r="B257">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B257,'Ark3'!$D$2:$D$100,'Ark1'!$A257)</f>
-        <v>5.9701492537313432E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="J257" s="4">
-        <v>5.7142857142857141E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K257" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B257,'Ark3'!$D$2:$D$100,'Ark1'!$A257)</f>
-        <v>5.9701492537313432E-2</v>
+        <v>0.22057244274468271</v>
       </c>
       <c r="L257" s="4">
-        <v>0.23211538298959891</v>
+        <v>0.29354352395090361</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -8486,24 +8249,21 @@
         <v>68</v>
       </c>
       <c r="B258">
-        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B258,'Ark3'!$D$2:$D$100,'Ark1'!$A258)</f>
-        <v>3.1746031746031737E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="J258" s="4">
-        <v>2.8985507246376808E-2</v>
+        <v>0</v>
       </c>
       <c r="K258" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B258,'Ark3'!$D$2:$D$100,'Ark1'!$A258)</f>
-        <v>3.1746031746031737E-2</v>
+        <v>0.2018475102235136</v>
       </c>
       <c r="L258" s="4">
-        <v>0.16776575221435111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -8511,20 +8271,17 @@
         <v>68</v>
       </c>
       <c r="B259">
-        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B259,'Ark3'!$D$2:$D$100,'Ark1'!$A259)</f>
         <v>0</v>
       </c>
       <c r="J259" s="4">
         <v>0</v>
       </c>
       <c r="K259" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B259,'Ark3'!$D$2:$D$100,'Ark1'!$A259)</f>
         <v>0</v>
       </c>
       <c r="L259" s="4">
@@ -8536,24 +8293,21 @@
         <v>68</v>
       </c>
       <c r="B260">
-        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B260,'Ark3'!$D$2:$D$100,'Ark1'!$A260)</f>
-        <v>6.8965517241379309E-2</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="J260" s="4">
-        <v>6.4516129032258063E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K260" s="4">
-        <f>SUMIFS('Ark3'!$E$2:$E$100,'Ark3'!$C$2:$C$100,'Ark1'!$B260,'Ark3'!$D$2:$D$100,'Ark1'!$A260)</f>
-        <v>6.8965517241379309E-2</v>
+        <v>0.20829889522526551</v>
       </c>
       <c r="L260" s="4">
-        <v>0.2456701001891583</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
